--- a/data/cat_345_clean_sin_lema_test.xlsx
+++ b/data/cat_345_clean_sin_lema_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C597"/>
+  <dimension ref="A1:C598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8292,1094 +8292,1109 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>1104</v>
+        <v>2003</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Al proporcionar información extensa y comparable internacionalmente sobre las habilidades de los estudiantes y sus antecedentes familiares y comunitarios, PISA ofrece una medida única para evaluar el progreso hacia los ODS y analizar la inclusión y la equidad en la educación 1 desde una perspectiva internacional. En este sentido, los sistemas educativos en los que una gran proporción de jóvenes de 15 años no ha adquirido las competencias básicas necesarias para participar plenamente en la sociedad no se consideran suficientemente inclusivos. En primer lugar, el acceso a la educación puede verse como una condición previa para que los niños se beneficien de la educación. El acceso se refleja principalmente en las tasas de matriculación escolar, los sistemas más equitativos e inclusivos logran minimizar la proporción de jóvenes en edad escolar que no están matriculados o tienen un retraso significativo en su progreso en la escuela. El uso de las innovaciones desarrolladas por los trabajadores más calificados requiere una fuerza laboral que haya adquirido al menos habilidades básicas.</t>
+          <t>Ponencia presentada en el Taller FAO-FIDA-OIT sobre "Lagunas, tendencias e investigación actual en las dimensiones de género del empleo agrícola y rural: Differentiated Pathways out of Poverty'Roma, 31 de marzo - 2 de abril de 2009. D. Sahn (1997), "Gender and Education Impacts on Employment and Earnings inWest Africa: Evidence from Guinea", Economic Development and Cultural Change, pp. Evidence from Cote-d'Ivoire", Oxford Bulletin of Economics and Statistics, pp.</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>proporcionar informacion extensa comparable internacionalmente habilidades estudiantes antecedentes familiares comunitarios pisa ofrece medida unica evaluar progreso hacia ods analizar inclusion equidad educacion perspectiva internacional sistemas educativos gran proporcion jovenes quince anos adquirido competencias basicas necesarias participar plenamente sociedad consideran suficientemente inclusivos primer lugar acceso educacion puede verse condicion previa ninos beneficien educacion acceso refleja principalmente tasas matriculacion escolar sistemas mas equitativos inclusivos logran minimizar proporcion jovenes edad escolar estan matriculados retraso significativo progreso escuela uso innovaciones desarrolladas trabajadores mas calificados requiere fuerza laboral adquirido menos habilidades basicas</t>
+          <t>ponencia presentada taller faofidaoit lagunas tendencias investigacion actual dimensiones genero empleo agricola rural differentiated pathways out of povertyroma treinta y uno marzo dos abril dos mil nueve d sahn mil novecientos noventa y siete gender and education impacts on employment and earnings inwest africa evidence from guinea economic development and cultural change pp evidence from cotedivoire oxford bulletin of economics and statistics pp</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2580</v>
+        <v>1104</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Las mujeres jóvenes en situaciones de conflicto sufren tasas más elevadas de violencia de género. Estos índices suelen ser aún mayores si las mujeres pertenecen además a un grupo minoritario o marginado. NingÃºn estrato de la sociedad es inmune a la violencia de gÃ©nero, sin embargo, la capacidad de buscar reparaciÃ³n judicial o tratamiento mÃ©dico o la oportunidad de buscar servicios para escapar de la violencia de gÃ©nero dependen en gran medida de la posiciÃ³n social de la mujer y de su acceso a los recursos econÃ³micos (recuadro 4.2).</t>
+          <t>Al proporcionar información extensa y comparable internacionalmente sobre las habilidades de los estudiantes y sus antecedentes familiares y comunitarios, PISA ofrece una medida única para evaluar el progreso hacia los ODS y analizar la inclusión y la equidad en la educación 1 desde una perspectiva internacional. En este sentido, los sistemas educativos en los que una gran proporción de jóvenes de 15 años no ha adquirido las competencias básicas necesarias para participar plenamente en la sociedad no se consideran suficientemente inclusivos. En primer lugar, el acceso a la educación puede verse como una condición previa para que los niños se beneficien de la educación. El acceso se refleja principalmente en las tasas de matriculación escolar, los sistemas más equitativos e inclusivos logran minimizar la proporción de jóvenes en edad escolar que no están matriculados o tienen un retraso significativo en su progreso en la escuela. El uso de las innovaciones desarrolladas por los trabajadores más calificados requiere una fuerza laboral que haya adquirido al menos habilidades básicas.</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>mujeres jovenes situaciones conflicto sufren tasas mas elevadas violencia genero indices suelen ser aun mayores si mujeres pertenecen ademas grupo minoritario marginado ningaon estrato sociedad inmune violencia ganero embargo capacidad buscar reparacia3n judicial tratamiento madico oportunidad buscar servicios escapar violencia ganero dependen gran medida posicia3n social mujer acceso recursos econa3micos recuadro 42</t>
+          <t>proporcionar informacion extensa comparable internacionalmente habilidades estudiantes antecedentes familiares comunitarios pisa ofrece medida unica evaluar progreso hacia ods analizar inclusion equidad educacion perspectiva internacional sistemas educativos gran proporcion jovenes quince anos adquirido competencias basicas necesarias participar plenamente sociedad consideran suficientemente inclusivos primer lugar acceso educacion puede verse condicion previa ninos beneficien educacion acceso refleja principalmente tasas matriculacion escolar sistemas mas equitativos inclusivos logran minimizar proporcion jovenes edad escolar estan matriculados retraso significativo progreso escuela uso innovaciones desarrolladas trabajadores mas calificados requiere fuerza laboral adquirido menos habilidades basicas</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2245</v>
+        <v>2580</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Por tanto, merece la pena contar con profesores altamente cualificados que aborden las actitudes específicas de cada sexo dentro del aula. Muchos estudios y resultados de pruebas muestran diferencias de género en los niveles de competencia en estas materias. Según el Programa para la Evaluación Internacional de Alumnos (PISA) de la OCDE de 2012, que evalúa las competencias en lectura, matemáticas y ciencias de los jóvenes de 15 y 16 años, los alumnos de los países de la OCDE obtienen, por término medio, mejores resultados que los de la región de Asia y el Pacífico (cuadro 2.1).</t>
+          <t>Las mujeres jóvenes en situaciones de conflicto sufren tasas más elevadas de violencia de género. Estos índices suelen ser aún mayores si las mujeres pertenecen además a un grupo minoritario o marginado. NingÃºn estrato de la sociedad es inmune a la violencia de gÃ©nero, sin embargo, la capacidad de buscar reparaciÃ³n judicial o tratamiento mÃ©dico o la oportunidad de buscar servicios para escapar de la violencia de gÃ©nero dependen en gran medida de la posiciÃ³n social de la mujer y de su acceso a los recursos econÃ³micos (recuadro 4.2).</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>merece pena contar profesores altamente cualificados aborden actitudes especificas cada sexo dentro aula estudios resultados pruebas muestran diferencias genero niveles competencia materias segun programa evaluacion internacional alumnos pisa ocde dos mil doce evalua competencias lectura matematicas ciencias jovenes quince dieciseis anos alumnos paises ocde obtienen termino medio mejores resultados region asia pacifico cuadro 21</t>
+          <t>mujeres jovenes situaciones conflicto sufren tasas mas elevadas violencia genero indices suelen ser aun mayores si mujeres pertenecen ademas grupo minoritario marginado ningaon estrato sociedad inmune violencia ganero embargo capacidad buscar reparacia3n judicial tratamiento madico oportunidad buscar servicios escapar violencia ganero dependen gran medida posicia3n social mujer acceso recursos econa3micos recuadro 42</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2839</v>
+        <v>2245</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entre 2005 y 2016, las tasas de informalidad de las mujeres han fluctuado entre un mÃnimo trimestral del 56,2% y un mÃ¡ximo del 59,4%, mientras que las de los hombres se han mantenido entre el 49,2% y el 52%. Entre los trabajadores informales, los empleadores y los trabajadores asalariados tienden a estar en mejor situaciÃ³n, mientras que los trabajadores por cuenta propia y los empleados domÃ©sticos se encuentran en peor situaciÃ³n en tÃ©rminos de salarios, seguridad laboral y protecciÃ³n social. Las mujeres mexicanas son mucho más propensas a trabajar en la segunda categoría que en la primera. Mientras que 48.8% de los trabajadores hombres (entre 15 y 64 años) en México reportan nunca haber cotizado a la seguridad social en su vida productiva, la cifra es de 64.6% entre las mujeres (estimaciones de la OCDE de la ENIGH, 2014). </t>
+          <t>Por tanto, merece la pena contar con profesores altamente cualificados que aborden las actitudes específicas de cada sexo dentro del aula. Muchos estudios y resultados de pruebas muestran diferencias de género en los niveles de competencia en estas materias. Según el Programa para la Evaluación Internacional de Alumnos (PISA) de la OCDE de 2012, que evalúa las competencias en lectura, matemáticas y ciencias de los jóvenes de 15 y 16 años, los alumnos de los países de la OCDE obtienen, por término medio, mejores resultados que los de la región de Asia y el Pacífico (cuadro 2.1).</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>dos mil cinco dos mil dieciseis tasas informalidad mujeres fluctuado manimo trimestral 562 maximo 594 mientras hombres mantenido 492 cincuenta y dos trabajadores informales empleadores trabajadores asalariados tienden mejor situacia3n mientras trabajadores cuenta propia empleados domasticos encuentran peor situacia3n tarminos salarios seguridad laboral proteccia3n social mujeres mexicanas mas propensas trabajar segunda categoria primera mientras 488 trabajadores hombres quince sesenta y cuatro anos mexico reportan nunca haber cotizado seguridad social vida productiva cifra 646 mujeres estimaciones ocde enigh dos mil catorce</t>
+          <t>merece pena contar profesores altamente cualificados aborden actitudes especificas cada sexo dentro aula estudios resultados pruebas muestran diferencias genero niveles competencia materias segun programa evaluacion internacional alumnos pisa ocde dos mil doce evalua competencias lectura matematicas ciencias jovenes quince dieciseis anos alumnos paises ocde obtienen termino medio mejores resultados region asia pacifico cuadro 21</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2330</v>
+        <v>2839</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Las niñas siguen siendo menos propensas que los niños a elegir campos de estudio científicos y tecnológicos y, cuando lo hacen, es menos probable que acepten trabajos bien remunerados en esos campos. Estas 'opciones' se basan en estereotipos sobre ocupaciones adecuadas para las niñas en lugar de basarse en la capacidad. Los estereotipos que definen el cuidado como quintaesencialmente femenino (y maternal) parecen ser mucho más difíciles de eliminar que aquellos relacionados con ganar el pan, antes visto como un dominio masculino.1'7 Cada vez más mujeres están adoptando lo que se considera estilos de vida y patrones de conducta masculinos. trabajar participando más intensamente en el mercado laboral. Sin embargo, los hombres no están, en la misma medida, asumiendo una mayor responsabilidad en el trabajo doméstico y de cuidados no remunerado, considerado en general como 'femenino'.</t>
+          <t xml:space="preserve">Entre 2005 y 2016, las tasas de informalidad de las mujeres han fluctuado entre un mÃnimo trimestral del 56,2% y un mÃ¡ximo del 59,4%, mientras que las de los hombres se han mantenido entre el 49,2% y el 52%. Entre los trabajadores informales, los empleadores y los trabajadores asalariados tienden a estar en mejor situaciÃ³n, mientras que los trabajadores por cuenta propia y los empleados domÃ©sticos se encuentran en peor situaciÃ³n en tÃ©rminos de salarios, seguridad laboral y protecciÃ³n social. Las mujeres mexicanas son mucho más propensas a trabajar en la segunda categoría que en la primera. Mientras que 48.8% de los trabajadores hombres (entre 15 y 64 años) en México reportan nunca haber cotizado a la seguridad social en su vida productiva, la cifra es de 64.6% entre las mujeres (estimaciones de la OCDE de la ENIGH, 2014). </t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>ninas siguen siendo menos propensas ninos elegir campos estudio cientificos tecnologicos hacen menos probable acepten trabajos bien remunerados campos opciones basan estereotipos ocupaciones adecuadas ninas lugar basarse capacidad estereotipos definen cuidado quintaesencialmente femenino maternal parecen ser mas dificiles eliminar aquellos relacionados ganar pan visto dominio masculino1 siete cada vez mas mujeres estan adoptando considera estilos vida patrones conducta masculinos trabajar participando mas intensamente mercado laboral embargo hombres estan misma medida asumiendo mayor responsabilidad trabajo domestico cuidados remunerado considerado general femenino</t>
+          <t>dos mil cinco dos mil dieciseis tasas informalidad mujeres fluctuado manimo trimestral 562 maximo 594 mientras hombres mantenido 492 cincuenta y dos trabajadores informales empleadores trabajadores asalariados tienden mejor situacia3n mientras trabajadores cuenta propia empleados domasticos encuentran peor situacia3n tarminos salarios seguridad laboral proteccia3n social mujeres mexicanas mas propensas trabajar segunda categoria primera mientras 488 trabajadores hombres quince sesenta y cuatro anos mexico reportan nunca haber cotizado seguridad social vida productiva cifra 646 mujeres estimaciones ocde enigh dos mil catorce</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>1640</v>
+        <v>2330</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>En Noruega, esto puede explicarse por un tiempo superior al promedio de la OCDE que los niños dedican a actividades pedagógicas o educativas intencionales, un tiempo de contacto de los maestros con los niños superior al promedio, el nivel promedio de salarios de los maestros y un tamaño de grupo estimado por debajo del promedio. En los Países Bajos, hubo salarios docentes por encima del promedio, tiempo promedio de contacto de los maestros con los niños y tamaño de grupo estimado pequeño en comparación con el promedio; sin embargo, esto fue más que compensado por una cantidad de tiempo significativamente inferior al promedio que los niños dedicaron a actividades actividades pedagógicas o educativas (Figura 3.3). Por ejemplo, debido a los altos salarios en USD de Luxemburgo, tiene con mucho el costo salarial más alto en la educación preescolar: con USD 9 729, es más del triple que muchos países que se muestran en la Figura 3.3.</t>
+          <t>Las niñas siguen siendo menos propensas que los niños a elegir campos de estudio científicos y tecnológicos y, cuando lo hacen, es menos probable que acepten trabajos bien remunerados en esos campos. Estas 'opciones' se basan en estereotipos sobre ocupaciones adecuadas para las niñas en lugar de basarse en la capacidad. Los estereotipos que definen el cuidado como quintaesencialmente femenino (y maternal) parecen ser mucho más difíciles de eliminar que aquellos relacionados con ganar el pan, antes visto como un dominio masculino.1'7 Cada vez más mujeres están adoptando lo que se considera estilos de vida y patrones de conducta masculinos. trabajar participando más intensamente en el mercado laboral. Sin embargo, los hombres no están, en la misma medida, asumiendo una mayor responsabilidad en el trabajo doméstico y de cuidados no remunerado, considerado en general como 'femenino'.</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>noruega puede explicarse tiempo superior promedio ocde ninos dedican actividades pedagogicas educativas intencionales tiempo contacto maestros ninos superior promedio nivel promedio salarios maestros tamano grupo estimado debajo promedio paises bajos salarios docentes encima promedio tiempo promedio contacto maestros ninos tamano grupo estimado pequeno comparacion promedio embargo mas compensado cantidad tiempo significativamente inferior promedio ninos dedicaron actividades actividades pedagogicas educativas figura 33 ejemplo debido altos salarios usd luxemburgo costo salarial mas alto educacion preescolar usd nueve setecientos veintinueve mas triple paises muestran figura 33</t>
+          <t>ninas siguen siendo menos propensas ninos elegir campos estudio cientificos tecnologicos hacen menos probable acepten trabajos bien remunerados campos opciones basan estereotipos ocupaciones adecuadas ninas lugar basarse capacidad estereotipos definen cuidado quintaesencialmente femenino maternal parecen ser mas dificiles eliminar aquellos relacionados ganar pan visto dominio masculino1 siete cada vez mas mujeres estan adoptando considera estilos vida patrones conducta masculinos trabajar participando mas intensamente mercado laboral embargo hombres estan misma medida asumiendo mayor responsabilidad trabajo domestico cuidados remunerado considerado general femenino</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2906</v>
+        <v>1640</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Elevó la edad mínima para contraer matrimonio para las mujeres, eliminando la capacidad del esposo de negarle a la esposa el permiso para trabajar fuera del hogar, y requirió el consentimiento de ambos cónyuges para administrar los bienes conyugales. El caso de Etiopía muestra cómo las reformas que otorgan más derechos a las mujeres tienen un impacto medible en el empleo. Su participación en ocupaciones que requieren trabajo fuera del hogar, horas de tiempo completo y mayores habilidades aumentó más donde se había promulgado la reforma.</t>
+          <t>En Noruega, esto puede explicarse por un tiempo superior al promedio de la OCDE que los niños dedican a actividades pedagógicas o educativas intencionales, un tiempo de contacto de los maestros con los niños superior al promedio, el nivel promedio de salarios de los maestros y un tamaño de grupo estimado por debajo del promedio. En los Países Bajos, hubo salarios docentes por encima del promedio, tiempo promedio de contacto de los maestros con los niños y tamaño de grupo estimado pequeño en comparación con el promedio; sin embargo, esto fue más que compensado por una cantidad de tiempo significativamente inferior al promedio que los niños dedicaron a actividades actividades pedagógicas o educativas (Figura 3.3). Por ejemplo, debido a los altos salarios en USD de Luxemburgo, tiene con mucho el costo salarial más alto en la educación preescolar: con USD 9 729, es más del triple que muchos países que se muestran en la Figura 3.3.</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>elevo edad minima contraer matrimonio mujeres eliminando capacidad esposo negarle esposa permiso trabajar hogar requirio consentimiento ambos conyuges administrar bienes conyugales caso etiopia muestra reformas otorgan mas derechos mujeres impacto medible empleo participacion ocupaciones requieren trabajo hogar horas tiempo completo mayores habilidades aumento mas habia promulgado reforma</t>
+          <t>noruega puede explicarse tiempo superior promedio ocde ninos dedican actividades pedagogicas educativas intencionales tiempo contacto maestros ninos superior promedio nivel promedio salarios maestros tamano grupo estimado debajo promedio paises bajos salarios docentes encima promedio tiempo promedio contacto maestros ninos tamano grupo estimado pequeno comparacion promedio embargo mas compensado cantidad tiempo significativamente inferior promedio ninos dedicaron actividades actividades pedagogicas educativas figura 33 ejemplo debido altos salarios usd luxemburgo costo salarial mas alto educacion preescolar usd nueve setecientos veintinueve mas triple paises muestran figura 33</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2687</v>
+        <v>2906</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Los enfoques deben abordar tanto las barreras específicas que impiden la participación de niñas y mujeres en el deporte como las intersecciones a menudo complejas de cuestiones específicas de género y otros marcadores de desventaja, como la discapacidad, el origen étnico y el estatus socioeconómico (Jeanes et al. La provisión de actividades deportivas competitivas y no competitivas que sean atractivas para las niñas y las mujeres también requiere una planificación intencional (Bailey et al. En algunos contextos, las niñas y las mujeres pueden beneficiarse de oportunidades específicas que les permitan participar en entornos seguros y de apoyo .</t>
+          <t>Elevó la edad mínima para contraer matrimonio para las mujeres, eliminando la capacidad del esposo de negarle a la esposa el permiso para trabajar fuera del hogar, y requirió el consentimiento de ambos cónyuges para administrar los bienes conyugales. El caso de Etiopía muestra cómo las reformas que otorgan más derechos a las mujeres tienen un impacto medible en el empleo. Su participación en ocupaciones que requieren trabajo fuera del hogar, horas de tiempo completo y mayores habilidades aumentó más donde se había promulgado la reforma.</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>enfoques deben abordar barreras especificas impiden participacion ninas mujeres deporte intersecciones menudo complejas cuestiones especificas genero marcadores desventaja discapacidad origen etnico estatus socioeconomico jeanes et provision actividades deportivas competitivas competitivas atractivas ninas mujeres tambien requiere planificacion intencional bailey et contextos ninas mujeres pueden beneficiarse oportunidades especificas permitan participar entornos seguros apoyo</t>
+          <t>elevo edad minima contraer matrimonio mujeres eliminando capacidad esposo negarle esposa permiso trabajar hogar requirio consentimiento ambos conyuges administrar bienes conyugales caso etiopia muestra reformas otorgan mas derechos mujeres impacto medible empleo participacion ocupaciones requieren trabajo hogar horas tiempo completo mayores habilidades aumento mas habia promulgado reforma</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>667</v>
+        <v>2687</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Otro determinante es la sustitución del cuidado informal por un cuidado formal más costoso. Bajo el escenario de “envejecimiento saludable”, se permite que la curva de costos para los sobrevivientes se desplace hacia la derecha, posponiendo progresivamente los aumentos de gastos relacionados con la edad. Para los no sobrevivientes, se consideran dos efectos demográficos diferentes.</t>
+          <t>Los enfoques deben abordar tanto las barreras específicas que impiden la participación de niñas y mujeres en el deporte como las intersecciones a menudo complejas de cuestiones específicas de género y otros marcadores de desventaja, como la discapacidad, el origen étnico y el estatus socioeconómico (Jeanes et al. La provisión de actividades deportivas competitivas y no competitivas que sean atractivas para las niñas y las mujeres también requiere una planificación intencional (Bailey et al. En algunos contextos, las niñas y las mujeres pueden beneficiarse de oportunidades específicas que les permitan participar en entornos seguros y de apoyo .</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>determinante sustitucion cuidado informal cuidado formal mas costoso bajo escenario envejecimiento saludable permite curva costos sobrevivientes desplace hacia derecha posponiendo progresivamente aumentos gastos relacionados edad sobrevivientes consideran dos efectos demograficos diferentes</t>
+          <t>enfoques deben abordar barreras especificas impiden participacion ninas mujeres deporte intersecciones menudo complejas cuestiones especificas genero marcadores desventaja discapacidad origen etnico estatus socioeconomico jeanes et provision actividades deportivas competitivas competitivas atractivas ninas mujeres tambien requiere planificacion intencional bailey et contextos ninas mujeres pueden beneficiarse oportunidades especificas permitan participar entornos seguros apoyo</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>490</v>
+        <v>667</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>La principal ventaja del modelo de seguro social es que asigna un flujo de ingresos relativamente predecible, basado en las contribuciones al seguro social, a la atención de la salud. Sin embargo, el gobierno generalmente tiene menos supervisión de costos sobre los sistemas de salud basados ​​en el seguro social que sobre los financiados con impuestos, ya que los esquemas de seguro social se caracterizan por controles presupuestarios más débiles sobre sus decisiones de financiamiento y gasto. Además, las cotizaciones pueden tener grandes efectos distorsionadores en el mercado laboral.</t>
+          <t>Otro determinante es la sustitución del cuidado informal por un cuidado formal más costoso. Bajo el escenario de “envejecimiento saludable”, se permite que la curva de costos para los sobrevivientes se desplace hacia la derecha, posponiendo progresivamente los aumentos de gastos relacionados con la edad. Para los no sobrevivientes, se consideran dos efectos demográficos diferentes.</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>principal ventaja modelo seguro social asigna flujo ingresos relativamente predecible basado contribuciones seguro social atencion salud embargo gobierno generalmente menos supervision costos sistemas salud basados seguro social financiados impuestos esquemas seguro social caracterizan controles presupuestarios mas debiles decisiones financiamiento gasto ademas cotizaciones pueden tener grandes efectos distorsionadores mercado laboral</t>
+          <t>determinante sustitucion cuidado informal cuidado formal mas costoso bajo escenario envejecimiento saludable permite curva costos sobrevivientes desplace hacia derecha posponiendo progresivamente aumentos gastos relacionados edad sobrevivientes consideran dos efectos demograficos diferentes</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2591</v>
+        <v>490</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>La existencia de desigualdades de género puede impulsar una recuperación económica si su efecto sobre los costos supera las implicaciones negativas de la desigualdad en términos de demanda efectiva. La segunda sección contiene una revisión de la literatura sobre los vínculos entre el crecimiento y la desigualdad de género. El tercero cubre la metodología utilizada en este estudio, mientras que el cuarto presenta los resultados.</t>
+          <t>La principal ventaja del modelo de seguro social es que asigna un flujo de ingresos relativamente predecible, basado en las contribuciones al seguro social, a la atención de la salud. Sin embargo, el gobierno generalmente tiene menos supervisión de costos sobre los sistemas de salud basados ​​en el seguro social que sobre los financiados con impuestos, ya que los esquemas de seguro social se caracterizan por controles presupuestarios más débiles sobre sus decisiones de financiamiento y gasto. Además, las cotizaciones pueden tener grandes efectos distorsionadores en el mercado laboral.</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>existencia desigualdades genero puede impulsar recuperacion economica si efecto costos supera implicaciones negativas desigualdad terminos demanda efectiva segunda seccion contiene revision literatura vinculos crecimiento desigualdad genero tercero cubre metodologia utilizada estudio mientras cuarto presenta resultados</t>
+          <t>principal ventaja modelo seguro social asigna flujo ingresos relativamente predecible basado contribuciones seguro social atencion salud embargo gobierno generalmente menos supervision costos sistemas salud basados seguro social financiados impuestos esquemas seguro social caracterizan controles presupuestarios mas debiles decisiones financiamiento gasto ademas cotizaciones pueden tener grandes efectos distorsionadores mercado laboral</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>923</v>
+        <v>2591</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>En estas zonas, el acceso adecuado al servicio de salud pasó de 64% en 1995 a 79% en 2000. Hoy, más de 1 000 EBAIS están presentes en todos los territorios del país y constituyen la base del sistema nacional de salud. En una nota más negativa, los EBAIS solo ofrecen citas por la mañana y temprano en la tarde, lo que limita el acceso a la atención primaria. La mayoría de los médicos que trabajan en EBAIS no tienen formación especializada de posgrado en atención primaria.</t>
+          <t>La existencia de desigualdades de género puede impulsar una recuperación económica si su efecto sobre los costos supera las implicaciones negativas de la desigualdad en términos de demanda efectiva. La segunda sección contiene una revisión de la literatura sobre los vínculos entre el crecimiento y la desigualdad de género. El tercero cubre la metodología utilizada en este estudio, mientras que el cuarto presenta los resultados.</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>zonas acceso adecuado servicio salud paso sesenta y cuatro mil novecientos noventa y cinco setenta y nueve dos mil hoy mas cero ebais estan presentes territorios pais constituyen base sistema nacional salud nota mas negativa ebais solo ofrecen citas manana temprano tarde limita acceso atencion primaria mayoria medicos trabajan ebais formacion especializada posgrado atencion primaria</t>
+          <t>existencia desigualdades genero puede impulsar recuperacion economica si efecto costos supera implicaciones negativas desigualdad terminos demanda efectiva segunda seccion contiene revision literatura vinculos crecimiento desigualdad genero tercero cubre metodologia utilizada estudio mientras cuarto presenta resultados</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>1189</v>
+        <v>923</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>El gobierno australiano trabaja con las autoridades educativas gubernamentales y no gubernamentales estatales y territoriales para garantizar un alto nivel continuo de enseñanza y aprendizaje en las escuelas australianas. La mayor parte de la financiación pública de las universidades la proporciona el gobierno australiano, según las normas contenidas en la Ley de Apoyo a la Educación Superior de 2003. Los gobiernos estatales y territoriales pueden acreditar otras instituciones terciarias (a través de una autoridad de acreditación), pero las instituciones deben estar incluidas en el Marco de Cualificaciones de Australia. Regístrese antes de que puedan otorgar calificaciones a los estudiantes.</t>
+          <t>En estas zonas, el acceso adecuado al servicio de salud pasó de 64% en 1995 a 79% en 2000. Hoy, más de 1 000 EBAIS están presentes en todos los territorios del país y constituyen la base del sistema nacional de salud. En una nota más negativa, los EBAIS solo ofrecen citas por la mañana y temprano en la tarde, lo que limita el acceso a la atención primaria. La mayoría de los médicos que trabajan en EBAIS no tienen formación especializada de posgrado en atención primaria.</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>gobierno australiano trabaja autoridades educativas gubernamentales gubernamentales estatales territoriales garantizar alto nivel continuo ensenanza aprendizaje escuelas australianas mayor parte financiacion publica universidades proporciona gobierno australiano segun normas contenidas ley apoyo educacion superior dos mil tres gobiernos estatales territoriales pueden acreditar instituciones terciarias traves autoridad acreditacion instituciones deben incluidas marco cualificaciones australia registrese puedan otorgar calificaciones estudiantes</t>
+          <t>zonas acceso adecuado servicio salud paso sesenta y cuatro mil novecientos noventa y cinco setenta y nueve dos mil hoy mas cero ebais estan presentes territorios pais constituyen base sistema nacional salud nota mas negativa ebais solo ofrecen citas manana temprano tarde limita acceso atencion primaria mayoria medicos trabajan ebais formacion especializada posgrado atencion primaria</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>158</v>
+        <v>1189</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t xml:space="preserve">El tercer sector (religioso, benéfico y otros organismos no gubernamentales) también desempeña un papel importante en la prestación de algunos aspectos de la asistencia sanitaria y social. La Junta Nacional de Protección Social, creada en 1845, financia con los ingresos de la "lotería nacional" diversos programas de promoción de la salud, cuidados paliativos, tratamiento del alcoholismo y la drogadicción y ayuda a discapacitados y ancianos, entre otros. Esto es especialmente cierto en el sector hospitalario. </t>
+          <t>El gobierno australiano trabaja con las autoridades educativas gubernamentales y no gubernamentales estatales y territoriales para garantizar un alto nivel continuo de enseñanza y aprendizaje en las escuelas australianas. La mayor parte de la financiación pública de las universidades la proporciona el gobierno australiano, según las normas contenidas en la Ley de Apoyo a la Educación Superior de 2003. Los gobiernos estatales y territoriales pueden acreditar otras instituciones terciarias (a través de una autoridad de acreditación), pero las instituciones deben estar incluidas en el Marco de Cualificaciones de Australia. Regístrese antes de que puedan otorgar calificaciones a los estudiantes.</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>tercer sector religioso benefico organismos gubernamentales tambien desempena papel importante prestacion aspectos asistencia sanitaria social junta nacional proteccion social creada mil ochocientos cuarenta y cinco financia ingresos loteria nacional diversos programas promocion salud cuidados paliativos tratamiento alcoholismo drogadiccion ayuda discapacitados ancianos especialmente cierto sector hospitalario</t>
+          <t>gobierno australiano trabaja autoridades educativas gubernamentales gubernamentales estatales territoriales garantizar alto nivel continuo ensenanza aprendizaje escuelas australianas mayor parte financiacion publica universidades proporciona gobierno australiano segun normas contenidas ley apoyo educacion superior dos mil tres gobiernos estatales territoriales pueden acreditar instituciones terciarias traves autoridad acreditacion instituciones deben incluidas marco cualificaciones australia registrese puedan otorgar calificaciones estudiantes</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>1333</v>
+        <v>158</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Dado que casi todos los hogares coreanos soportan una pesada carga de educación privada y la nueva administración ve el crecimiento impulsado por los ingresos como una de las estrategias de crecimiento nacional, los responsables de la política educativa están haciendo una variedad de esfuerzos para reducir la carga de la educación privada. Están tratando de proteger un cierto nivel de ingresos disponibles mediante la reducción de los gastos de educación privada de los hogares a partir de 2017. A diferencia de otros países de la OCDE, en Corea, el gobierno central, el Ministerio de Educación, es responsable de financiar la educación. Los expertos en educación y las instituciones asociadas están firmemente en contra de un cambio de la centralización actual a la descentralización del financiamiento de la educación. Para establecer un plan de financiamiento estable, se debe rediseñar la descentralización fiscal en el financiamiento de la educación, como en otros países de la OCDE.</t>
+          <t xml:space="preserve">El tercer sector (religioso, benéfico y otros organismos no gubernamentales) también desempeña un papel importante en la prestación de algunos aspectos de la asistencia sanitaria y social. La Junta Nacional de Protección Social, creada en 1845, financia con los ingresos de la "lotería nacional" diversos programas de promoción de la salud, cuidados paliativos, tratamiento del alcoholismo y la drogadicción y ayuda a discapacitados y ancianos, entre otros. Esto es especialmente cierto en el sector hospitalario. </t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>dado casi hogares coreanos soportan pesada carga educacion privada nueva administracion ve crecimiento impulsado ingresos estrategias crecimiento nacional responsables politica educativa estan haciendo variedad esfuerzos reducir carga educacion privada estan tratando proteger cierto nivel ingresos disponibles mediante reduccion gastos educacion privada hogares partir dos mil diecisiete diferencia paises ocde corea gobierno central ministerio educacion responsable financiar educacion expertos educacion instituciones asociadas estan firmemente cambio centralizacion actual descentralizacion financiamiento educacion establecer plan financiamiento estable debe redisenar descentralizacion fiscal financiamiento educacion paises ocde</t>
+          <t>tercer sector religioso benefico organismos gubernamentales tambien desempena papel importante prestacion aspectos asistencia sanitaria social junta nacional proteccion social creada mil ochocientos cuarenta y cinco financia ingresos loteria nacional diversos programas promocion salud cuidados paliativos tratamiento alcoholismo drogadiccion ayuda discapacitados ancianos especialmente cierto sector hospitalario</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2354</v>
+        <v>1333</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>En las regiones en desarrollo, una proporción significativa de mujeres que están en la fuerza laboral no tienen ingresos propios porque son trabajadoras familiares auxiliares, en granjas y empresas familiares. Estar casado y tener hijos pequeños en el hogar reduce las tasas de participación de la fuerza laboral de las mujeres, mientras que tienen el efecto contrario en las de los hombres. La discriminación en los mercados laborales y la responsabilidad desproporcionada de las mujeres en el trabajo doméstico y de cuidados no remunerado plantean un problema particular para las madres solas que no pueden depender de la distribución de ingresos con una pareja.</t>
+          <t>Dado que casi todos los hogares coreanos soportan una pesada carga de educación privada y la nueva administración ve el crecimiento impulsado por los ingresos como una de las estrategias de crecimiento nacional, los responsables de la política educativa están haciendo una variedad de esfuerzos para reducir la carga de la educación privada. Están tratando de proteger un cierto nivel de ingresos disponibles mediante la reducción de los gastos de educación privada de los hogares a partir de 2017. A diferencia de otros países de la OCDE, en Corea, el gobierno central, el Ministerio de Educación, es responsable de financiar la educación. Los expertos en educación y las instituciones asociadas están firmemente en contra de un cambio de la centralización actual a la descentralización del financiamiento de la educación. Para establecer un plan de financiamiento estable, se debe rediseñar la descentralización fiscal en el financiamiento de la educación, como en otros países de la OCDE.</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>regiones desarrollo proporcion significativa mujeres estan fuerza laboral ingresos propios trabajadoras familiares auxiliares granjas empresas familiares casado tener hijos pequenos hogar reduce tasas participacion fuerza laboral mujeres mientras efecto contrario hombres discriminacion mercados laborales responsabilidad desproporcionada mujeres trabajo domestico cuidados remunerado plantean problema particular madres solas pueden depender distribucion ingresos pareja</t>
+          <t>dado casi hogares coreanos soportan pesada carga educacion privada nueva administracion ve crecimiento impulsado ingresos estrategias crecimiento nacional responsables politica educativa estan haciendo variedad esfuerzos reducir carga educacion privada estan tratando proteger cierto nivel ingresos disponibles mediante reduccion gastos educacion privada hogares partir dos mil diecisiete diferencia paises ocde corea gobierno central ministerio educacion responsable financiar educacion expertos educacion instituciones asociadas estan firmemente cambio centralizacion actual descentralizacion financiamiento educacion establecer plan financiamiento estable debe redisenar descentralizacion fiscal financiamiento educacion paises ocde</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>1782</v>
+        <v>2354</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>El sistema no puede basarse en herramientas coherentes para medir la calidad y la eficacia del sistema educativo y la consecución real de los resultados del aprendizaje, ya que no existen ni evaluaciones externas del aprendizaje, basadas en evaluaciones nacionales normalizadas, ni evaluaciones externas de las escuelas y la enseñanza. Los alumnos avanzan de curso según son evaluados en las escuelas por sus profesores, y los exámenes externos sólo se utilizan para regular las admisiones en la enseñanza superior. Se incluyó una disposición relativa a la evaluación de las escuelas en la ley aprobada en mayo de 2010 (3848/201), que también incluía requisitos relativos a las condiciones que rodean el empleo de profesores, directores de escuela y otros (véase la sección sobre referencias actuales en el apartado sobre desarrollo y uso de los recursos humanos). También incluirá sugerencias de mejora para el próximo curso escolar.</t>
+          <t>En las regiones en desarrollo, una proporción significativa de mujeres que están en la fuerza laboral no tienen ingresos propios porque son trabajadoras familiares auxiliares, en granjas y empresas familiares. Estar casado y tener hijos pequeños en el hogar reduce las tasas de participación de la fuerza laboral de las mujeres, mientras que tienen el efecto contrario en las de los hombres. La discriminación en los mercados laborales y la responsabilidad desproporcionada de las mujeres en el trabajo doméstico y de cuidados no remunerado plantean un problema particular para las madres solas que no pueden depender de la distribución de ingresos con una pareja.</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>sistema puede basarse herramientas coherentes medir calidad eficacia sistema educativo consecucion real resultados aprendizaje existen evaluaciones externas aprendizaje basadas evaluaciones nacionales normalizadas evaluaciones externas escuelas ensenanza alumnos avanzan curso segun evaluados escuelas profesores examenes externos solo utilizan regular admisiones ensenanza superior incluyo disposicion relativa evaluacion escuelas ley aprobada mayo dos mil diez 3848201 tambien incluia requisitos relativos condiciones rodean empleo profesores directores escuela vease seccion referencias actuales apartado desarrollo uso recursos humanos tambien incluira sugerencias mejora proximo curso escolar</t>
+          <t>regiones desarrollo proporcion significativa mujeres estan fuerza laboral ingresos propios trabajadoras familiares auxiliares granjas empresas familiares casado tener hijos pequenos hogar reduce tasas participacion fuerza laboral mujeres mientras efecto contrario hombres discriminacion mercados laborales responsabilidad desproporcionada mujeres trabajo domestico cuidados remunerado plantean problema particular madres solas pueden depender distribucion ingresos pareja</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>1958</v>
+        <v>1782</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>En los textos dinámicos, normalmente solo se puede ver una fracción del texto disponible en un momento dado y, a menudo, se desconoce la extensión del texto disponible. Matemáticas: Comprender las matemáticas es fundamental para la preparación de un joven para la vida en la sociedad moderna. Una proporción cada vez mayor de problemas y situaciones que se encuentran en la vida diaria, incluidos los contextos profesionales, requieren cierto nivel de comprensión de las matemáticas, el razonamiento matemático y las herramientas matemáticas.</t>
+          <t>El sistema no puede basarse en herramientas coherentes para medir la calidad y la eficacia del sistema educativo y la consecución real de los resultados del aprendizaje, ya que no existen ni evaluaciones externas del aprendizaje, basadas en evaluaciones nacionales normalizadas, ni evaluaciones externas de las escuelas y la enseñanza. Los alumnos avanzan de curso según son evaluados en las escuelas por sus profesores, y los exámenes externos sólo se utilizan para regular las admisiones en la enseñanza superior. Se incluyó una disposición relativa a la evaluación de las escuelas en la ley aprobada en mayo de 2010 (3848/201), que también incluía requisitos relativos a las condiciones que rodean el empleo de profesores, directores de escuela y otros (véase la sección sobre referencias actuales en el apartado sobre desarrollo y uso de los recursos humanos). También incluirá sugerencias de mejora para el próximo curso escolar.</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>textos dinamicos normalmente solo puede ver fraccion texto disponible momento dado menudo desconoce extension texto disponible matematicas comprender matematicas fundamental preparacion joven vida sociedad moderna proporcion cada vez mayor problemas situaciones encuentran vida diaria incluidos contextos profesionales requieren cierto nivel comprension matematicas razonamiento matematico herramientas matematicas</t>
+          <t>sistema puede basarse herramientas coherentes medir calidad eficacia sistema educativo consecucion real resultados aprendizaje existen evaluaciones externas aprendizaje basadas evaluaciones nacionales normalizadas evaluaciones externas escuelas ensenanza alumnos avanzan curso segun evaluados escuelas profesores examenes externos solo utilizan regular admisiones ensenanza superior incluyo disposicion relativa evaluacion escuelas ley aprobada mayo dos mil diez 3848201 tambien incluia requisitos relativos condiciones rodean empleo profesores directores escuela vease seccion referencias actuales apartado desarrollo uso recursos humanos tambien incluira sugerencias mejora proximo curso escolar</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>2984</v>
+        <v>1958</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Las actividades empresariales siguen viéndose obstaculizadas por limitaciones que pueden ser específicas de cada sexo, como las normas culturales o el acceso restringido de las mujeres a la financiación. Aunque las fuentes de financiación son las mismas para hombres y mujeres, las mujeres suelen enfrentarse a mayores obstáculos para acceder a la financiación. Las principales razones de esta brecha de género están asociadas a las diferencias en el sector de actividad y a la edad y tamaño de las empresas propiedad de mujeres. Sin embargo, otras posibles explicaciones son la falta de experiencia en la gestiÃ³n, un historial crediticio mÃ¡s dÃ©bil de las mujeres y un menor tamaÃ±o de las empresas.</t>
+          <t>En los textos dinámicos, normalmente solo se puede ver una fracción del texto disponible en un momento dado y, a menudo, se desconoce la extensión del texto disponible. Matemáticas: Comprender las matemáticas es fundamental para la preparación de un joven para la vida en la sociedad moderna. Una proporción cada vez mayor de problemas y situaciones que se encuentran en la vida diaria, incluidos los contextos profesionales, requieren cierto nivel de comprensión de las matemáticas, el razonamiento matemático y las herramientas matemáticas.</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>actividades empresariales siguen viendose obstaculizadas limitaciones pueden ser especificas cada sexo normas culturales acceso restringido mujeres financiacion aunque fuentes financiacion mismas hombres mujeres mujeres suelen enfrentarse mayores obstaculos acceder financiacion principales razones brecha genero estan asociadas diferencias sector actividad edad tamano empresas propiedad mujeres embargo posibles explicaciones falta experiencia gestia3n historial crediticio mas dabil mujeres menor tamaao empresas</t>
+          <t>textos dinamicos normalmente solo puede ver fraccion texto disponible momento dado menudo desconoce extension texto disponible matematicas comprender matematicas fundamental preparacion joven vida sociedad moderna proporcion cada vez mayor problemas situaciones encuentran vida diaria incluidos contextos profesionales requieren cierto nivel comprension matematicas razonamiento matematico herramientas matematicas</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>1788</v>
+        <v>2984</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Los estándares o marcos de liderazgo escolar profesional también deben aclarar y resaltar la importancia del liderazgo escolar para la evaluación y evaluación, en general, y para la valoración de docentes y la evaluación escolar, en particular. Para dar un ejemplo, el liderazgo distribuido en las escuelas secundarias puede ayudar a brindar retroalimentación informal regular a los maestros en sus áreas temáticas, algo para lo que un líder escolar individual podría no estar necesariamente equipado considerando la falta de experiencia en diferentes materias (OCDE, 2009). Al mismo tiempo, distribuir el liderazgo en las escuelas no necesariamente disminuye la carga de trabajo de un líder escolar y puede crear nuevos desafíos para los líderes escolares, quienes, a su vez, requieren un apoyo continuo.</t>
+          <t>Las actividades empresariales siguen viéndose obstaculizadas por limitaciones que pueden ser específicas de cada sexo, como las normas culturales o el acceso restringido de las mujeres a la financiación. Aunque las fuentes de financiación son las mismas para hombres y mujeres, las mujeres suelen enfrentarse a mayores obstáculos para acceder a la financiación. Las principales razones de esta brecha de género están asociadas a las diferencias en el sector de actividad y a la edad y tamaño de las empresas propiedad de mujeres. Sin embargo, otras posibles explicaciones son la falta de experiencia en la gestiÃ³n, un historial crediticio mÃ¡s dÃ©bil de las mujeres y un menor tamaÃ±o de las empresas.</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>estandares marcos liderazgo escolar profesional tambien deben aclarar resaltar importancia liderazgo escolar evaluacion evaluacion general valoracion docentes evaluacion escolar particular dar ejemplo liderazgo distribuido escuelas secundarias puede ayudar brindar retroalimentacion informal regular maestros areas tematicas lider escolar individual podria necesariamente equipado considerando falta experiencia diferentes materias ocde dos mil nueve mismo tiempo distribuir liderazgo escuelas necesariamente disminuye carga trabajo lider escolar puede crear nuevos desafios lideres escolares vez requieren apoyo continuo</t>
+          <t>actividades empresariales siguen viendose obstaculizadas limitaciones pueden ser especificas cada sexo normas culturales acceso restringido mujeres financiacion aunque fuentes financiacion mismas hombres mujeres mujeres suelen enfrentarse mayores obstaculos acceder financiacion principales razones brecha genero estan asociadas diferencias sector actividad edad tamano empresas propiedad mujeres embargo posibles explicaciones falta experiencia gestia3n historial crediticio mas dabil mujeres menor tamaao empresas</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>1909</v>
+        <v>1788</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los padres pagan una cuota máxima solo por el jardín de infancia (entre el 15,8% y el 22,5% de los costes totales en 2011, dependiendo de si el jardín es público o privado). Los condados son responsables de la educación secundaria superior, que financian mediante impuestos y subvenciones globales. Los costes en este sector varían considerablemente de una región a otra. Se conceden subvenciones y disposiciones estatales adicionales para evitar disparidades regionales. Los jardines de infancia privados (50% de todos los jardines de infancia) también son financiados por el Estado a través de las subvenciones globales a los municipios. </t>
+          <t>Los estándares o marcos de liderazgo escolar profesional también deben aclarar y resaltar la importancia del liderazgo escolar para la evaluación y evaluación, en general, y para la valoración de docentes y la evaluación escolar, en particular. Para dar un ejemplo, el liderazgo distribuido en las escuelas secundarias puede ayudar a brindar retroalimentación informal regular a los maestros en sus áreas temáticas, algo para lo que un líder escolar individual podría no estar necesariamente equipado considerando la falta de experiencia en diferentes materias (OCDE, 2009). Al mismo tiempo, distribuir el liderazgo en las escuelas no necesariamente disminuye la carga de trabajo de un líder escolar y puede crear nuevos desafíos para los líderes escolares, quienes, a su vez, requieren un apoyo continuo.</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>padres pagan cuota maxima solo jardin infancia 158 225 costes totales dos mil once dependiendo si jardin publico privado condados responsables educacion secundaria superior financian mediante impuestos subvenciones globales costes sector varian considerablemente region conceden subvenciones disposiciones estatales adicionales evitar disparidades regionales jardines infancia privados cincuenta jardines infancia tambien financiados traves subvenciones globales municipios</t>
+          <t>estandares marcos liderazgo escolar profesional tambien deben aclarar resaltar importancia liderazgo escolar evaluacion evaluacion general valoracion docentes evaluacion escolar particular dar ejemplo liderazgo distribuido escuelas secundarias puede ayudar brindar retroalimentacion informal regular maestros areas tematicas lider escolar individual podria necesariamente equipado considerando falta experiencia diferentes materias ocde dos mil nueve mismo tiempo distribuir liderazgo escuelas necesariamente disminuye carga trabajo lider escolar puede crear nuevos desafios lideres escolares vez requieren apoyo continuo</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>752</v>
+        <v>1909</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Una posible explicación de esto es que a medida que las naciones se vuelven más ricas, las personas otorgan mayor valor a la salud y quieren gastar una mayor parte de sus ingresos en mejorar su salud (Fogel 2008). La “elasticidad del ingreso” varía mucho en los resultados empíricos y si la atención médica es un bien de lujo o una necesidad es todavía un tema sin resolver. Los resultados de las provincias de EE. UU. y Canadá, así como los datos a nivel nacional de 16 países de la OCDE, confirman que las estimaciones del tamaño de la elasticidad del ingreso varían según el nivel de análisis, siendo la elasticidad del ingreso internacional generalmente mayor que las elasticidades estimadas en estudios nacionales o regionales. (Di Mateo, 2003).</t>
+          <t xml:space="preserve">Los padres pagan una cuota máxima solo por el jardín de infancia (entre el 15,8% y el 22,5% de los costes totales en 2011, dependiendo de si el jardín es público o privado). Los condados son responsables de la educación secundaria superior, que financian mediante impuestos y subvenciones globales. Los costes en este sector varían considerablemente de una región a otra. Se conceden subvenciones y disposiciones estatales adicionales para evitar disparidades regionales. Los jardines de infancia privados (50% de todos los jardines de infancia) también son financiados por el Estado a través de las subvenciones globales a los municipios. </t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>posible explicacion medida naciones vuelven mas ricas personas otorgan mayor valor salud quieren gastar mayor parte ingresos mejorar salud fogel dos mil ocho elasticidad ingreso varia resultados empiricos si atencion medica bien lujo necesidad todavia tema resolver resultados provincias ee uu canada asi datos nivel nacional dieciseis paises ocde confirman estimaciones tamano elasticidad ingreso varian segun nivel analisis siendo elasticidad ingreso internacional generalmente mayor elasticidades estimadas estudios nacionales regionales di mateo dos mil tres</t>
+          <t>padres pagan cuota maxima solo jardin infancia 158 225 costes totales dos mil once dependiendo si jardin publico privado condados responsables educacion secundaria superior financian mediante impuestos subvenciones globales costes sector varian considerablemente region conceden subvenciones disposiciones estatales adicionales evitar disparidades regionales jardines infancia privados cincuenta jardines infancia tambien financiados traves subvenciones globales municipios</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>2779</v>
+        <v>752</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Estas mujeres han establecido familias con responsabilidades familiares reducidas, amplia experiencia, un electorado leal y son económicamente estables. Estas mujeres también pueden ser asesoradas por otras mujeres con autoridad política. El nombramiento de mujeres líderes en puestos de autoridad ha resultado eficaz en muchos países de la Commonwealth. Rediseño de los distritos electorales: las investigaciones han demostrado que las mujeres ganan más escaños abiertos (nuevos distritos electorales) que los distritos electorales bien establecidos. La creación de nuevos distritos o ayuntamientos puede extraerse en función del aumento de población. Involucrar a campeones masculinos: en la práctica, es importante asociarse con hombres que tienen un control del poder de larga data y sensibilizarlos para que comprendan la equidad de género, la igualdad y la integración.</t>
+          <t>Una posible explicación de esto es que a medida que las naciones se vuelven más ricas, las personas otorgan mayor valor a la salud y quieren gastar una mayor parte de sus ingresos en mejorar su salud (Fogel 2008). La “elasticidad del ingreso” varía mucho en los resultados empíricos y si la atención médica es un bien de lujo o una necesidad es todavía un tema sin resolver. Los resultados de las provincias de EE. UU. y Canadá, así como los datos a nivel nacional de 16 países de la OCDE, confirman que las estimaciones del tamaño de la elasticidad del ingreso varían según el nivel de análisis, siendo la elasticidad del ingreso internacional generalmente mayor que las elasticidades estimadas en estudios nacionales o regionales. (Di Mateo, 2003).</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>mujeres establecido familias responsabilidades familiares reducidas amplia experiencia electorado leal economicamente estables mujeres tambien pueden ser asesoradas mujeres autoridad politica nombramiento mujeres lideres puestos autoridad resultado eficaz paises commonwealth rediseno distritos electorales investigaciones demostrado mujeres ganan mas escanos abiertos nuevos distritos electorales distritos electorales bien establecidos creacion nuevos distritos ayuntamientos puede extraerse funcion aumento poblacion involucrar campeones masculinos practica importante asociarse hombres control poder larga data sensibilizarlos comprendan equidad genero igualdad integracion</t>
+          <t>posible explicacion medida naciones vuelven mas ricas personas otorgan mayor valor salud quieren gastar mayor parte ingresos mejorar salud fogel dos mil ocho elasticidad ingreso varia resultados empiricos si atencion medica bien lujo necesidad todavia tema resolver resultados provincias ee uu canada asi datos nivel nacional dieciseis paises ocde confirman estimaciones tamano elasticidad ingreso varian segun nivel analisis siendo elasticidad ingreso internacional generalmente mayor elasticidades estimadas estudios nacionales regionales di mateo dos mil tres</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>520</v>
+        <v>2779</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>El modelo de microsimulación actualmente proyecta el estado de salud y las transiciones del estado de salud a nivel individual, y CBO está desarrollando una metodología para proyectar la elegibilidad para Medicare y Medicaid a nivel individual. El estado de salud está vinculado a la mortalidad, y un mayor desarrollo vinculará el estado de salud con el trabajo, el estado civil, la fertilidad y los gastos federales de atención médica (Topoleski y Manchester, 2009). La población cambia a través de nacimientos, muertes e inmigración.</t>
+          <t>Estas mujeres han establecido familias con responsabilidades familiares reducidas, amplia experiencia, un electorado leal y son económicamente estables. Estas mujeres también pueden ser asesoradas por otras mujeres con autoridad política. El nombramiento de mujeres líderes en puestos de autoridad ha resultado eficaz en muchos países de la Commonwealth. Rediseño de los distritos electorales: las investigaciones han demostrado que las mujeres ganan más escaños abiertos (nuevos distritos electorales) que los distritos electorales bien establecidos. La creación de nuevos distritos o ayuntamientos puede extraerse en función del aumento de población. Involucrar a campeones masculinos: en la práctica, es importante asociarse con hombres que tienen un control del poder de larga data y sensibilizarlos para que comprendan la equidad de género, la igualdad y la integración.</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>modelo microsimulacion actualmente proyecta salud transiciones salud nivel individual cbo desarrollando metodologia proyectar elegibilidad medicare medicaid nivel individual salud vinculado mortalidad mayor desarrollo vinculara salud trabajo civil fertilidad gastos federales atencion medica topoleski manchester dos mil nueve poblacion cambia traves nacimientos muertes inmigracion</t>
+          <t>mujeres establecido familias responsabilidades familiares reducidas amplia experiencia electorado leal economicamente estables mujeres tambien pueden ser asesoradas mujeres autoridad politica nombramiento mujeres lideres puestos autoridad resultado eficaz paises commonwealth rediseno distritos electorales investigaciones demostrado mujeres ganan mas escanos abiertos nuevos distritos electorales distritos electorales bien establecidos creacion nuevos distritos ayuntamientos puede extraerse funcion aumento poblacion involucrar campeones masculinos practica importante asociarse hombres control poder larga data sensibilizarlos comprendan equidad genero igualdad integracion</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>1783</v>
+        <v>520</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Los cursos eran obligatorios dentro del grupo de materias de matemáticas y fueron revisados ​​en 1990 y 1997 para responder a los avances tecnológicos. Cuando Tailandia introdujo un nuevo currículo de educación básica en 2001, incluyó estándares sobre lo que los estudiantes de los 12 grados deberían saber sobre las TIC. La educación tecnológica comprendía las TIC y los contenidos sobre diseño y tecnología. Tailandia amplió sus esfuerzos para integrar las TIC en la educación mediante el desarrollo de una serie de documentos de estrategia de cuatro años y enmiendas al plan de estudios de educación básica.</t>
+          <t>El modelo de microsimulación actualmente proyecta el estado de salud y las transiciones del estado de salud a nivel individual, y CBO está desarrollando una metodología para proyectar la elegibilidad para Medicare y Medicaid a nivel individual. El estado de salud está vinculado a la mortalidad, y un mayor desarrollo vinculará el estado de salud con el trabajo, el estado civil, la fertilidad y los gastos federales de atención médica (Topoleski y Manchester, 2009). La población cambia a través de nacimientos, muertes e inmigración.</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>cursos obligatorios dentro grupo materias matematicas revisados mil novecientos noventa mil novecientos noventa y siete responder avances tecnologicos tailandia introdujo nuevo curriculo educacion basica dos mil uno incluyo estandares estudiantes doce grados deberian saber tic educacion tecnologica comprendia tic contenidos diseno tecnologia tailandia amplio esfuerzos integrar tic educacion mediante desarrollo serie documentos estrategia cuatro anos enmiendas plan estudios educacion basica</t>
+          <t>modelo microsimulacion actualmente proyecta salud transiciones salud nivel individual cbo desarrollando metodologia proyectar elegibilidad medicare medicaid nivel individual salud vinculado mortalidad mayor desarrollo vinculara salud trabajo civil fertilidad gastos federales atencion medica topoleski manchester dos mil nueve poblacion cambia traves nacimientos muertes inmigracion</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>2859</v>
+        <v>1783</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Obliga a los partidos políticos a garantizar la paridad de género al designar candidatos en las elecciones al Congreso federal y local y a alternar nombres masculinos y femeninos en sus listas de candidatos. La medida supuso una mejora decisiva con respecto al requisito constitucional anterior de que al menos el 40% de los diputados de la Asamblea fueran del mismo sexo (OCDE, 2017b). Sin embargo, entre 2013 y 2016, ningún otro país se sumó a los 10 que declararon practicar las cuotas legislativas, aunque Francia las adoptó en 2013 a nivel subnacional.</t>
+          <t>Los cursos eran obligatorios dentro del grupo de materias de matemáticas y fueron revisados ​​en 1990 y 1997 para responder a los avances tecnológicos. Cuando Tailandia introdujo un nuevo currículo de educación básica en 2001, incluyó estándares sobre lo que los estudiantes de los 12 grados deberían saber sobre las TIC. La educación tecnológica comprendía las TIC y los contenidos sobre diseño y tecnología. Tailandia amplió sus esfuerzos para integrar las TIC en la educación mediante el desarrollo de una serie de documentos de estrategia de cuatro años y enmiendas al plan de estudios de educación básica.</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>obliga partidos politicos garantizar paridad genero designar candidatos elecciones congreso federal local alternar nombres masculinos femeninos listas candidatos medida supuso mejora decisiva respecto requisito constitucional anterior menos cuarenta diputados asamblea mismo sexo ocde 2017b embargo dos mil trece dos mil dieciseis ningun pais sumo diez declararon practicar cuotas legislativas aunque francia adopto dos mil trece nivel subnacional</t>
+          <t>cursos obligatorios dentro grupo materias matematicas revisados mil novecientos noventa mil novecientos noventa y siete responder avances tecnologicos tailandia introdujo nuevo curriculo educacion basica dos mil uno incluyo estandares estudiantes doce grados deberian saber tic educacion tecnologica comprendia tic contenidos diseno tecnologia tailandia amplio esfuerzos integrar tic educacion mediante desarrollo serie documentos estrategia cuatro anos enmiendas plan estudios educacion basica</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>1745</v>
+        <v>2859</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Los comentarios están diseñados para ser valiosos como informes independientes, pero también están preparados para que puedan convertirse en la primera fase de una revisión completa, si así lo desea un país. El estudio de la OCDE, Habilidades más allá de la escuela, aborda la variedad de cuestiones de política que surgen, incluida la financiación y la gobernanza, la conciliación de la oferta y la demanda, la garantía de la calidad y la equidad y el acceso. El estudio se basará en el éxito del estudio anterior de la OCDE sobre educación y formación profesional Learning for Jobs, que examinó la política a través de 17 revisiones de países y un informe comparativo.</t>
+          <t>Obliga a los partidos políticos a garantizar la paridad de género al designar candidatos en las elecciones al Congreso federal y local y a alternar nombres masculinos y femeninos en sus listas de candidatos. La medida supuso una mejora decisiva con respecto al requisito constitucional anterior de que al menos el 40% de los diputados de la Asamblea fueran del mismo sexo (OCDE, 2017b). Sin embargo, entre 2013 y 2016, ningún otro país se sumó a los 10 que declararon practicar las cuotas legislativas, aunque Francia las adoptó en 2013 a nivel subnacional.</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>comentarios estan disenados ser valiosos informes independientes tambien estan preparados puedan convertirse primera fase revision completa si asi desea pais estudio ocde habilidades mas alla escuela aborda variedad cuestiones politica surgen incluida financiacion gobernanza conciliacion oferta demanda garantia calidad equidad acceso estudio basara exito estudio anterior ocde educacion formacion profesional learning for jobs examino politica traves diecisiete revisiones paises informe comparativo</t>
+          <t>obliga partidos politicos garantizar paridad genero designar candidatos elecciones congreso federal local alternar nombres masculinos femeninos listas candidatos medida supuso mejora decisiva respecto requisito constitucional anterior menos cuarenta diputados asamblea mismo sexo ocde 2017b embargo dos mil trece dos mil dieciseis ningun pais sumo diez declararon practicar cuotas legislativas aunque francia adopto dos mil trece nivel subnacional</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>2127</v>
+        <v>1745</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>En primer lugar, las mujeres suelen vivir más que los hombres. En segundo lugar, tienen menos acceso que los hombres a la tierra y a otros bienes que podrían ayudarles a mantener un nivel de vida adecuado en la vejez. En la India, por ejemplo, el 60% de las mujeres, frente al 30% de los hombres, no tienen bienes de valor a su nombre, y son pocas las viudas que pueden contar con el apoyo de la familia o de la comunidad.97 Incluso en países con una buena cobertura de pensiones, las mujeres tienen muchas más probabilidades de sufrir pobreza en la vejez que los hombres.</t>
+          <t>Los comentarios están diseñados para ser valiosos como informes independientes, pero también están preparados para que puedan convertirse en la primera fase de una revisión completa, si así lo desea un país. El estudio de la OCDE, Habilidades más allá de la escuela, aborda la variedad de cuestiones de política que surgen, incluida la financiación y la gobernanza, la conciliación de la oferta y la demanda, la garantía de la calidad y la equidad y el acceso. El estudio se basará en el éxito del estudio anterior de la OCDE sobre educación y formación profesional Learning for Jobs, que examinó la política a través de 17 revisiones de países y un informe comparativo.</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>primer lugar mujeres suelen vivir mas hombres segundo lugar menos acceso hombres tierra bienes podrian ayudarles mantener nivel vida adecuado vejez india ejemplo sesenta mujeres frente treinta hombres bienes valor nombre pocas viudas pueden contar apoyo familia comunidad97 incluso paises buena cobertura pensiones mujeres muchas mas probabilidades sufrir pobreza vejez hombres</t>
+          <t>comentarios estan disenados ser valiosos informes independientes tambien estan preparados puedan convertirse primera fase revision completa si asi desea pais estudio ocde habilidades mas alla escuela aborda variedad cuestiones politica surgen incluida financiacion gobernanza conciliacion oferta demanda garantia calidad equidad acceso estudio basara exito estudio anterior ocde educacion formacion profesional learning for jobs examino politica traves diecisiete revisiones paises informe comparativo</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>15</v>
+        <v>2127</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Estas estaciones cuentan con asistentes médicos y parteras y reportan a los hospitales locales. Estos últimos están equipados con unidades de laboratorio clínico y radiología y cuentan con uno o más médicos, un cirujano y un ginecólogo. Cuanto más cerca de los centros administrativos, más especializado es el nivel de las instalaciones y el personal. El sistema incluye dispensarios médicos especializados para ciertas enfermedades, como tuberculosis, cáncer, infecciones de transmisión sexual, trastornos psiquiátricos y enfermedades de la piel.</t>
+          <t>En primer lugar, las mujeres suelen vivir más que los hombres. En segundo lugar, tienen menos acceso que los hombres a la tierra y a otros bienes que podrían ayudarles a mantener un nivel de vida adecuado en la vejez. En la India, por ejemplo, el 60% de las mujeres, frente al 30% de los hombres, no tienen bienes de valor a su nombre, y son pocas las viudas que pueden contar con el apoyo de la familia o de la comunidad.97 Incluso en países con una buena cobertura de pensiones, las mujeres tienen muchas más probabilidades de sufrir pobreza en la vejez que los hombres.</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>estaciones cuentan asistentes medicos parteras reportan hospitales locales ultimos estan equipados unidades laboratorio clinico radiologia cuentan mas medicos cirujano ginecologo cuanto mas cerca centros administrativos mas especializado nivel instalaciones personal sistema incluye dispensarios medicos especializados ciertas enfermedades tuberculosis cancer infecciones transmision sexual trastornos psiquiatricos enfermedades piel</t>
+          <t>primer lugar mujeres suelen vivir mas hombres segundo lugar menos acceso hombres tierra bienes podrian ayudarles mantener nivel vida adecuado vejez india ejemplo sesenta mujeres frente treinta hombres bienes valor nombre pocas viudas pueden contar apoyo familia comunidad97 incluso paises buena cobertura pensiones mujeres muchas mas probabilidades sufrir pobreza vejez hombres</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>743</v>
+        <v>15</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Las estimaciones del Grupo Interinstitucional de las Naciones Unidas para la Estimación de la Mortalidad Infantil muestran una disminución del 50 por ciento en la mortalidad infantil entre 2000 y 2010, pero las tasas del país siguen siendo bastante altas, entre las 10 principales de la región europea. Las anomalías congénitas y la neumonía, que podrían atribuirse en parte a los puntos críticos ambientales químicos y a la contaminación del aire interior por fuentes peligrosas de calefacción y cocina, particularmente en áreas pobres, se encuentran entre las principales causas de mortalidad, y representan el 22 y el 18 por ciento, respectivamente, de todas las muertes. Según las estimaciones, en 2008, Albania se encontraba entre los 10 países con mayor mortalidad materna en la región europea, con malas condiciones sanitarias, entre otros factores contribuyentes. Por lo tanto, se necesita un esfuerzo considerable si se quiere alcanzar el ODM 5, que apunta a reducir la tasa de mortalidad materna en tres cuartas partes entre 1990 y 2015.</t>
+          <t>Estas estaciones cuentan con asistentes médicos y parteras y reportan a los hospitales locales. Estos últimos están equipados con unidades de laboratorio clínico y radiología y cuentan con uno o más médicos, un cirujano y un ginecólogo. Cuanto más cerca de los centros administrativos, más especializado es el nivel de las instalaciones y el personal. El sistema incluye dispensarios médicos especializados para ciertas enfermedades, como tuberculosis, cáncer, infecciones de transmisión sexual, trastornos psiquiátricos y enfermedades de la piel.</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>estimaciones grupo interinstitucional naciones unidas estimacion mortalidad infantil muestran disminucion cincuenta ciento mortalidad infantil dos mil dos mil diez tasas pais siguen siendo bastante altas diez principales region europea anomalias congenitas neumonia podrian atribuirse parte puntos criticos ambientales quimicos contaminacion aire interior fuentes peligrosas calefaccion cocina particularmente areas pobres encuentran principales causas mortalidad representan veintidos dieciocho ciento respectivamente todas muertes segun estimaciones dos mil ocho albania encontraba diez paises mayor mortalidad materna region europea malas condiciones sanitarias factores contribuyentes necesita esfuerzo considerable si quiere alcanzar odm cinco apunta reducir tasa mortalidad materna tres cuartas partes mil novecientos noventa dos mil quince</t>
+          <t>estaciones cuentan asistentes medicos parteras reportan hospitales locales ultimos estan equipados unidades laboratorio clinico radiologia cuentan mas medicos cirujano ginecologo cuanto mas cerca centros administrativos mas especializado nivel instalaciones personal sistema incluye dispensarios medicos especializados ciertas enfermedades tuberculosis cancer infecciones transmision sexual trastornos psiquiatricos enfermedades piel</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>1403</v>
+        <v>743</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>También hay evidencia de fuga de cerebros, con un estimado de 350 000 malasios trabajando en el extranjero en 2008, más de la mitad de los cuales tenían educación terciaria. En el año 2000, sólo el 8,9% de la población regional había alcanzado el nivel de educación terciaria. La economía ha dependido de la importación de mano de obra de toda Malasia y de otros países. Dentro de la Región Económica del Corredor Norte, el estado de Penang tiene una población mejor educada que los otros tres estados, pero en comparación internacional, Penang es una región poco calificada. Si bien hay un impulso para pasar a una economía de alta calificación y altos salarios, Penang sigue dependiendo de industrias y ocupaciones de baja calificación.</t>
+          <t>Las estimaciones del Grupo Interinstitucional de las Naciones Unidas para la Estimación de la Mortalidad Infantil muestran una disminución del 50 por ciento en la mortalidad infantil entre 2000 y 2010, pero las tasas del país siguen siendo bastante altas, entre las 10 principales de la región europea. Las anomalías congénitas y la neumonía, que podrían atribuirse en parte a los puntos críticos ambientales químicos y a la contaminación del aire interior por fuentes peligrosas de calefacción y cocina, particularmente en áreas pobres, se encuentran entre las principales causas de mortalidad, y representan el 22 y el 18 por ciento, respectivamente, de todas las muertes. Según las estimaciones, en 2008, Albania se encontraba entre los 10 países con mayor mortalidad materna en la región europea, con malas condiciones sanitarias, entre otros factores contribuyentes. Por lo tanto, se necesita un esfuerzo considerable si se quiere alcanzar el ODM 5, que apunta a reducir la tasa de mortalidad materna en tres cuartas partes entre 1990 y 2015.</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>tambien evidencia fuga cerebros estimado trescientos cincuenta cero malasios trabajando extranjero dos mil ocho mas mitad cuales tenian educacion terciaria ano dos mil solo 89 poblacion regional habia alcanzado nivel educacion terciaria economia dependido importacion mano obra toda malasia paises dentro region economica corredor norte penang poblacion mejor educada tres comparacion internacional penang region calificada si bien impulso pasar economia alta calificacion altos salarios penang sigue dependiendo industrias ocupaciones baja calificacion</t>
+          <t>estimaciones grupo interinstitucional naciones unidas estimacion mortalidad infantil muestran disminucion cincuenta ciento mortalidad infantil dos mil dos mil diez tasas pais siguen siendo bastante altas diez principales region europea anomalias congenitas neumonia podrian atribuirse parte puntos criticos ambientales quimicos contaminacion aire interior fuentes peligrosas calefaccion cocina particularmente areas pobres encuentran principales causas mortalidad representan veintidos dieciocho ciento respectivamente todas muertes segun estimaciones dos mil ocho albania encontraba diez paises mayor mortalidad materna region europea malas condiciones sanitarias factores contribuyentes necesita esfuerzo considerable si quiere alcanzar odm cinco apunta reducir tasa mortalidad materna tres cuartas partes mil novecientos noventa dos mil quince</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>843</v>
+        <v>1403</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>El Observatorio Nacional de Buenas Prácticas para la Seguridad del Paciente de Italia promueve el intercambio y el aprendizaje a partir de los acontecimientos adversos (cont.) El aprendizaje de estos talleres se consolida y se plasma en recomendaciones nacionales aplicables en todo el país, que se publican en el portal del Observatorio. El siguiente paso, la aplicación regional de estas recomendaciones, cuenta con el apoyo de AGENAS, la autoridad nacional encargada de apoyar la I+AP para mejorar la calidad de la asistencia sanitaria.</t>
+          <t>También hay evidencia de fuga de cerebros, con un estimado de 350 000 malasios trabajando en el extranjero en 2008, más de la mitad de los cuales tenían educación terciaria. En el año 2000, sólo el 8,9% de la población regional había alcanzado el nivel de educación terciaria. La economía ha dependido de la importación de mano de obra de toda Malasia y de otros países. Dentro de la Región Económica del Corredor Norte, el estado de Penang tiene una población mejor educada que los otros tres estados, pero en comparación internacional, Penang es una región poco calificada. Si bien hay un impulso para pasar a una economía de alta calificación y altos salarios, Penang sigue dependiendo de industrias y ocupaciones de baja calificación.</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>observatorio nacional buenas practicas seguridad paciente italia promueve intercambio aprendizaje partir acontecimientos adversos cont aprendizaje talleres consolida plasma recomendaciones nacionales aplicables pais publican portal observatorio siguiente paso aplicacion regional recomendaciones cuenta apoyo agenas autoridad nacional encargada apoyar iap mejorar calidad asistencia sanitaria</t>
+          <t>tambien evidencia fuga cerebros estimado trescientos cincuenta cero malasios trabajando extranjero dos mil ocho mas mitad cuales tenian educacion terciaria ano dos mil solo 89 poblacion regional habia alcanzado nivel educacion terciaria economia dependido importacion mano obra toda malasia paises dentro region economica corredor norte penang poblacion mejor educada tres comparacion internacional penang region calificada si bien impulso pasar economia alta calificacion altos salarios penang sigue dependiendo industrias ocupaciones baja calificacion</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>683</v>
+        <v>843</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Se mide por las tasas de mortalidad específicas por edad para determinadas causas de muerte (por ejemplo, asma por debajo de los 45 años). Sin embargo, no existe una definición universal, ya que la selección de las causas de muerte y los límites de edad suelen variar de un estudio a otro. Nolte y McKee (2008), así como Tobias y Yeh (2009), han propuesto diferentes listas de causas de muerte y límites de edad.</t>
+          <t>El Observatorio Nacional de Buenas Prácticas para la Seguridad del Paciente de Italia promueve el intercambio y el aprendizaje a partir de los acontecimientos adversos (cont.) El aprendizaje de estos talleres se consolida y se plasma en recomendaciones nacionales aplicables en todo el país, que se publican en el portal del Observatorio. El siguiente paso, la aplicación regional de estas recomendaciones, cuenta con el apoyo de AGENAS, la autoridad nacional encargada de apoyar la I+AP para mejorar la calidad de la asistencia sanitaria.</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>mide tasas mortalidad especificas edad determinadas causas muerte ejemplo asma debajo cuarenta y cinco anos embargo existe definicion universal seleccion causas muerte limites edad suelen variar estudio nolte mckee dos mil ocho asi tobias yeh dos mil nueve propuesto diferentes listas causas muerte limites edad</t>
+          <t>observatorio nacional buenas practicas seguridad paciente italia promueve intercambio aprendizaje partir acontecimientos adversos cont aprendizaje talleres consolida plasma recomendaciones nacionales aplicables pais publican portal observatorio siguiente paso aplicacion regional recomendaciones cuenta apoyo agenas autoridad nacional encargada apoyar iap mejorar calidad asistencia sanitaria</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>1502</v>
+        <v>683</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>A pesar de este objetivo, sin embargo, no se encontró información directamente vinculada con el campo de las TIC en la formación inicial del profesorado. Este es el caso de la República Checa y Grecia. A la fecha, 92 000 docentes (76% en total) ya se han familiarizado con las aplicaciones informáticas básicas, mientras que el resto de los docentes se encuentra actualmente asistiendo a dichos cursos.</t>
+          <t>Se mide por las tasas de mortalidad específicas por edad para determinadas causas de muerte (por ejemplo, asma por debajo de los 45 años). Sin embargo, no existe una definición universal, ya que la selección de las causas de muerte y los límites de edad suelen variar de un estudio a otro. Nolte y McKee (2008), así como Tobias y Yeh (2009), han propuesto diferentes listas de causas de muerte y límites de edad.</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>pesar objetivo embargo encontro informacion directamente vinculada campo tic formacion inicial profesorado caso republica checa grecia fecha noventa y dos cero docentes setenta y seis total familiarizado aplicaciones informaticas basicas mientras resto docentes encuentra actualmente asistiendo dichos cursos</t>
+          <t>mide tasas mortalidad especificas edad determinadas causas muerte ejemplo asma debajo cuarenta y cinco anos embargo existe definicion universal seleccion causas muerte limites edad suelen variar estudio nolte mckee dos mil ocho asi tobias yeh dos mil nueve propuesto diferentes listas causas muerte limites edad</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>2424</v>
+        <v>1502</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Los jóvenes asisten a los Centros o sitios de extensión cercanos a sus hogares y brindan a sus respectivos gerentes de extensión informes sobre sus actividades. Señala que “se deben hacer esfuerzos especiales para enfatizar la responsabilidad compartida de los hombres y promover su participación activa en la paternidad responsable, el comportamiento sexual y reproductivo, incluida la planificación familiar, la salud prenatal, materna e infantil, la prevención de enfermedades de transmisión sexual, incluido el VIH, [y] la prevención de embarazos no deseados y de alto riesgo" (párrafo 4.27). Las campañas efectivas generalmente van más allá de simplemente proporcionar información para alentar a los niños y hombres a hablar sobre temas específicos, como la violencia contra la mujer. Algunas campañas efectivas también utilizan mensajes relacionados con estilos de vida equitativos de género, en cierto sentido promoviendo o reforzando tipos específicos de identidad masculina.</t>
+          <t>A pesar de este objetivo, sin embargo, no se encontró información directamente vinculada con el campo de las TIC en la formación inicial del profesorado. Este es el caso de la República Checa y Grecia. A la fecha, 92 000 docentes (76% en total) ya se han familiarizado con las aplicaciones informáticas básicas, mientras que el resto de los docentes se encuentra actualmente asistiendo a dichos cursos.</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>jovenes asisten centros sitios extension cercanos hogares brindan respectivos gerentes extension informes actividades senala deben hacer esfuerzos especiales enfatizar responsabilidad compartida hombres promover participacion activa paternidad responsable comportamiento sexual reproductivo incluida planificacion familiar salud prenatal materna infantil prevencion enfermedades transmision sexual incluido vih prevencion embarazos deseados alto riesgo parrafo 427 campanas efectivas generalmente van mas alla simplemente proporcionar informacion alentar ninos hombres hablar temas especificos violencia mujer campanas efectivas tambien utilizan mensajes relacionados estilos vida equitativos genero cierto promoviendo reforzando tipos especificos identidad masculina</t>
+          <t>pesar objetivo embargo encontro informacion directamente vinculada campo tic formacion inicial profesorado caso republica checa grecia fecha noventa y dos cero docentes setenta y seis total familiarizado aplicaciones informaticas basicas mientras resto docentes encuentra actualmente asistiendo dichos cursos</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>493</v>
+        <v>2424</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Se espera que la primera compra centralizada de medicamentos en diciembre de 2012 ahorre 80 millones de euros (Gallo y Gene-Badia, 2013. Grecia restableció el Comité de Adquisiciones de Salud que supervisa el Programa de Adquisiciones de Servicios de Salud (conocido como PPYY). Los proveedores de atención médica envían sus solicitudes de productos para el cuidado de la salud, incluidos dispositivos y medicamentos hospitalarios, a PPYY.</t>
+          <t>Los jóvenes asisten a los Centros o sitios de extensión cercanos a sus hogares y brindan a sus respectivos gerentes de extensión informes sobre sus actividades. Señala que “se deben hacer esfuerzos especiales para enfatizar la responsabilidad compartida de los hombres y promover su participación activa en la paternidad responsable, el comportamiento sexual y reproductivo, incluida la planificación familiar, la salud prenatal, materna e infantil, la prevención de enfermedades de transmisión sexual, incluido el VIH, [y] la prevención de embarazos no deseados y de alto riesgo" (párrafo 4.27). Las campañas efectivas generalmente van más allá de simplemente proporcionar información para alentar a los niños y hombres a hablar sobre temas específicos, como la violencia contra la mujer. Algunas campañas efectivas también utilizan mensajes relacionados con estilos de vida equitativos de género, en cierto sentido promoviendo o reforzando tipos específicos de identidad masculina.</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>espera primera compra centralizada medicamentos diciembre dos mil doce ahorre ochenta millones euros gallo genebadia dos mil trece grecia restablecio comite adquisiciones salud supervisa programa adquisiciones servicios salud conocido ppyy proveedores atencion medica envian solicitudes productos cuidado salud incluidos dispositivos medicamentos hospitalarios ppyy</t>
+          <t>jovenes asisten centros sitios extension cercanos hogares brindan respectivos gerentes extension informes actividades senala deben hacer esfuerzos especiales enfatizar responsabilidad compartida hombres promover participacion activa paternidad responsable comportamiento sexual reproductivo incluida planificacion familiar salud prenatal materna infantil prevencion enfermedades transmision sexual incluido vih prevencion embarazos deseados alto riesgo parrafo 427 campanas efectivas generalmente van mas alla simplemente proporcionar informacion alentar ninos hombres hablar temas especificos violencia mujer campanas efectivas tambien utilizan mensajes relacionados estilos vida equitativos genero cierto promoviendo reforzando tipos especificos identidad masculina</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>1518</v>
+        <v>493</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Más precisamente, se está prestando especial atención a la formación inicial, entre otros aspectos. Los futuros maestros en estos niveles deben obtener títulos de licenciatura de cuatro años, lo que significa una extensión de un año en la formación docente. No obstante, las universidades españolas deberán elaborar los programas de formación inicial del profesorado de acuerdo con las directrices marcadas por el Gobierno español.</t>
+          <t>Se espera que la primera compra centralizada de medicamentos en diciembre de 2012 ahorre 80 millones de euros (Gallo y Gene-Badia, 2013. Grecia restableció el Comité de Adquisiciones de Salud que supervisa el Programa de Adquisiciones de Servicios de Salud (conocido como PPYY). Los proveedores de atención médica envían sus solicitudes de productos para el cuidado de la salud, incluidos dispositivos y medicamentos hospitalarios, a PPYY.</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>mas precisamente prestando especial atencion formacion inicial aspectos futuros maestros niveles deben obtener titulos licenciatura cuatro anos significa extension ano formacion docente obstante universidades espanolas deberan elaborar programas formacion inicial profesorado acuerdo directrices marcadas gobierno espanol</t>
+          <t>espera primera compra centralizada medicamentos diciembre dos mil doce ahorre ochenta millones euros gallo genebadia dos mil trece grecia restablecio comite adquisiciones salud supervisa programa adquisiciones servicios salud conocido ppyy proveedores atencion medica envian solicitudes productos cuidado salud incluidos dispositivos medicamentos hospitalarios ppyy</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>930</v>
+        <v>1518</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Las prisiones de varios estados han permitido que los reclusos indígenas practiquen la cabaña de sudación y otras ceremonias religiosas tribales como parte de su rehabilitación. La medicina tradicional utiliza un modelo holístico de bienestar mediante la integración de los aspectos emocionales, físicos, mentales y espirituales del ser. Aunque las prácticas específicas varían entre las distintas tribus, toda la medicina tradicional se basa en el entendimiento de que los seres humanos forman parte de la naturaleza y la salud es una cuestión de equilibrio. Por lo tanto, se respeta la tierra y todas sus ofrendas. Tradicionalmente, los ancianos comprendían la importancia de respetar y utilizar su entorno para obtener alimentos, medicinas y ceremonias para la salud en general.</t>
+          <t>Más precisamente, se está prestando especial atención a la formación inicial, entre otros aspectos. Los futuros maestros en estos niveles deben obtener títulos de licenciatura de cuatro años, lo que significa una extensión de un año en la formación docente. No obstante, las universidades españolas deberán elaborar los programas de formación inicial del profesorado de acuerdo con las directrices marcadas por el Gobierno español.</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>prisiones varios permitido reclusos indigenas practiquen cabana sudacion ceremonias religiosas tribales parte rehabilitacion medicina tradicional utiliza modelo holistico bienestar mediante integracion aspectos emocionales fisicos mentales espirituales ser aunque practicas especificas varian distintas tribus toda medicina tradicional basa entendimiento seres humanos forman parte naturaleza salud cuestion equilibrio respeta tierra todas ofrendas tradicionalmente ancianos comprendian importancia respetar utilizar entorno obtener alimentos medicinas ceremonias salud general</t>
+          <t>mas precisamente prestando especial atencion formacion inicial aspectos futuros maestros niveles deben obtener titulos licenciatura cuatro anos significa extension ano formacion docente obstante universidades espanolas deberan elaborar programas formacion inicial profesorado acuerdo directrices marcadas gobierno espanol</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>1503</v>
+        <v>930</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tras la reforma de la Folkeskole de 2014 y la introducción de un nuevo arreglo para la utilización del tiempo de trabajo de los docentes, se espera que los docentes enseñen más horas. Como resultado, los maestros pasan menos tiempo para la preparación y otras tareas. En general, se han vuelto a priorizar los recursos, desde la preparación y otras tareas hasta la enseñanza. Esto requiere un ajuste por parte de los maestros para prepararse para sus lecciones y trabajar de otra manera (por ejemplo, compartiendo materiales didácticos en mayor medida) para cumplir con otras tareas que les exige el liderazgo escolar. De acuerdo con la Ley de Folkeskole, el director de la escuela es responsable de la calidad de la enseñanza de la escuela, así como de la gestión administrativa y pedagógica general de la escuela. Como resultado, la responsabilidad principal de diseñar, introducir y organizar los procedimientos de evaluación de docentes dentro de la escuela recae en el director de la escuela.</t>
+          <t>Las prisiones de varios estados han permitido que los reclusos indígenas practiquen la cabaña de sudación y otras ceremonias religiosas tribales como parte de su rehabilitación. La medicina tradicional utiliza un modelo holístico de bienestar mediante la integración de los aspectos emocionales, físicos, mentales y espirituales del ser. Aunque las prácticas específicas varían entre las distintas tribus, toda la medicina tradicional se basa en el entendimiento de que los seres humanos forman parte de la naturaleza y la salud es una cuestión de equilibrio. Por lo tanto, se respeta la tierra y todas sus ofrendas. Tradicionalmente, los ancianos comprendían la importancia de respetar y utilizar su entorno para obtener alimentos, medicinas y ceremonias para la salud en general.</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>tras reforma folkeskole dos mil catorce introduccion nuevo arreglo utilizacion tiempo trabajo docentes espera docentes ensenen mas horas resultado maestros pasan menos tiempo preparacion tareas general vuelto priorizar recursos preparacion tareas ensenanza requiere ajuste parte maestros prepararse lecciones trabajar manera ejemplo compartiendo materiales didacticos mayor medida cumplir tareas exige liderazgo escolar acuerdo ley folkeskole director escuela responsable calidad ensenanza escuela asi gestion administrativa pedagogica general escuela resultado responsabilidad principal disenar introducir organizar procedimientos evaluacion docentes dentro escuela recae director escuela</t>
+          <t>prisiones varios permitido reclusos indigenas practiquen cabana sudacion ceremonias religiosas tribales parte rehabilitacion medicina tradicional utiliza modelo holistico bienestar mediante integracion aspectos emocionales fisicos mentales espirituales ser aunque practicas especificas varian distintas tribus toda medicina tradicional basa entendimiento seres humanos forman parte naturaleza salud cuestion equilibrio respeta tierra todas ofrendas tradicionalmente ancianos comprendian importancia respetar utilizar entorno obtener alimentos medicinas ceremonias salud general</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>597</v>
+        <v>1503</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>La mayoría de las admisiones involuntarias de salud mental están bajo la Ley de Salud Mental de 1983. Es importante destacar que esta Ley codificó los roles profesionales de aquellos con el poder de solicitar la detención de un paciente, específicamente los poderes que tiene un Trabajador Social Aprobado (ASW), y estipuló capacitación específica del personal para cualquier persona que administre el acto (Rapaport y Manthorpe, 2009). La Ley de Salud Mental de 1995 otorgó a las autoridades nuevos poderes sobre las personas dadas de alta del hospital.</t>
+          <t>Tras la reforma de la Folkeskole de 2014 y la introducción de un nuevo arreglo para la utilización del tiempo de trabajo de los docentes, se espera que los docentes enseñen más horas. Como resultado, los maestros pasan menos tiempo para la preparación y otras tareas. En general, se han vuelto a priorizar los recursos, desde la preparación y otras tareas hasta la enseñanza. Esto requiere un ajuste por parte de los maestros para prepararse para sus lecciones y trabajar de otra manera (por ejemplo, compartiendo materiales didácticos en mayor medida) para cumplir con otras tareas que les exige el liderazgo escolar. De acuerdo con la Ley de Folkeskole, el director de la escuela es responsable de la calidad de la enseñanza de la escuela, así como de la gestión administrativa y pedagógica general de la escuela. Como resultado, la responsabilidad principal de diseñar, introducir y organizar los procedimientos de evaluación de docentes dentro de la escuela recae en el director de la escuela.</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>mayoria admisiones involuntarias salud mental estan bajo ley salud mental mil novecientos ochenta y tres importante destacar ley codifico roles profesionales aquellos poder solicitar detencion paciente especificamente poderes trabajador social aprobado asw estipulo capacitacion especifica personal cualquier persona administre acto rapaport manthorpe dos mil nueve ley salud mental mil novecientos noventa y cinco otorgo autoridades nuevos poderes personas dadas alta hospital</t>
+          <t>tras reforma folkeskole dos mil catorce introduccion nuevo arreglo utilizacion tiempo trabajo docentes espera docentes ensenen mas horas resultado maestros pasan menos tiempo preparacion tareas general vuelto priorizar recursos preparacion tareas ensenanza requiere ajuste parte maestros prepararse lecciones trabajar manera ejemplo compartiendo materiales didacticos mayor medida cumplir tareas exige liderazgo escolar acuerdo ley folkeskole director escuela responsable calidad ensenanza escuela asi gestion administrativa pedagogica general escuela resultado responsabilidad principal disenar introducir organizar procedimientos evaluacion docentes dentro escuela recae director escuela</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Existe una diversidad considerable en las estrategias para el tratamiento basado en la atención primaria de los trastornos leves a moderados entre los países de la OCDE, y los enfoques estratégicos difieren según la organización del sistema de salud mental y la provisión de atención primaria, así como en muchos casos siguiendo las idiosincrasias. de las prácticas individuales de atención primaria (Glied et al., El tratamiento de los trastornos mentales leves a moderados en la atención primaria es menos costoso para los sistemas de salud que el tratamiento por especialistas, o por la mayoría de los servicios especializados (OMS y Wonca, 2008). Con un aumento suficiente en cobertura, los tratamientos para la depresión en la atención primaria resultaron ser un uso eficaz de los recursos de salud, incluso en entornos de escasos recursos (Chisholm et al., Además de brindar beneficios económicos al ayudar a regresar al trabajo y mejorar la productividad (OCDE, 2012), un tratamiento más eficaz de los trastornos mentales en la atención primaria puede contribuir a reducir las derivaciones inapropiadas a servicios de atención especializada más costosos (NICE, 2011).</t>
+          <t>La mayoría de las admisiones involuntarias de salud mental están bajo la Ley de Salud Mental de 1983. Es importante destacar que esta Ley codificó los roles profesionales de aquellos con el poder de solicitar la detención de un paciente, específicamente los poderes que tiene un Trabajador Social Aprobado (ASW), y estipuló capacitación específica del personal para cualquier persona que administre el acto (Rapaport y Manthorpe, 2009). La Ley de Salud Mental de 1995 otorgó a las autoridades nuevos poderes sobre las personas dadas de alta del hospital.</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>existe diversidad considerable estrategias tratamiento basado atencion primaria trastornos leves moderados paises ocde enfoques estrategicos difieren segun organizacion sistema salud mental provision atencion primaria asi casos siguiendo idiosincrasias practicas individuales atencion primaria glied et tratamiento trastornos mentales leves moderados atencion primaria menos costoso sistemas salud tratamiento especialistas mayoria servicios especializados oms wonca dos mil ocho aumento suficiente cobertura tratamientos depresion atencion primaria resultaron ser uso eficaz recursos salud incluso entornos escasos recursos chisholm et ademas brindar beneficios economicos ayudar regresar trabajo mejorar productividad ocde dos mil doce tratamiento mas eficaz trastornos mentales atencion primaria puede contribuir reducir derivaciones inapropiadas servicios atencion especializada mas costosos nice dos mil once</t>
+          <t>mayoria admisiones involuntarias salud mental estan bajo ley salud mental mil novecientos ochenta y tres importante destacar ley codifico roles profesionales aquellos poder solicitar detencion paciente especificamente poderes trabajador social aprobado asw estipulo capacitacion especifica personal cualquier persona administre acto rapaport manthorpe dos mil nueve ley salud mental mil novecientos noventa y cinco otorgo autoridades nuevos poderes personas dadas alta hospital</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>2423</v>
+        <v>116</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>En 2013, celebró una reunión con altos funcionarios de la dirección del Banco Nacional de Abu Dhabi (NBAD) que exploró varias formas de apoyar a las mujeres empresarias en los Emiratos a través de servicios bancarios proporcionados a las PYME por NBAD. El DBWC organiza el evento mensual de alto perfil "Majlis Business" para brindar información sobre los últimos conocimientos, habilidades y mejores prácticas para mujeres empresarias y líderes. También participa en actividades de consultoría en cooperación con DBWC.</t>
+          <t>Existe una diversidad considerable en las estrategias para el tratamiento basado en la atención primaria de los trastornos leves a moderados entre los países de la OCDE, y los enfoques estratégicos difieren según la organización del sistema de salud mental y la provisión de atención primaria, así como en muchos casos siguiendo las idiosincrasias. de las prácticas individuales de atención primaria (Glied et al., El tratamiento de los trastornos mentales leves a moderados en la atención primaria es menos costoso para los sistemas de salud que el tratamiento por especialistas, o por la mayoría de los servicios especializados (OMS y Wonca, 2008). Con un aumento suficiente en cobertura, los tratamientos para la depresión en la atención primaria resultaron ser un uso eficaz de los recursos de salud, incluso en entornos de escasos recursos (Chisholm et al., Además de brindar beneficios económicos al ayudar a regresar al trabajo y mejorar la productividad (OCDE, 2012), un tratamiento más eficaz de los trastornos mentales en la atención primaria puede contribuir a reducir las derivaciones inapropiadas a servicios de atención especializada más costosos (NICE, 2011).</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>dos mil trece celebro reunion altos funcionarios direccion banco nacional abu dhabi nbad exploro varias formas apoyar mujeres empresarias emiratos traves servicios bancarios proporcionados pyme nbad dbwc organiza evento mensual alto perfil majlis business brindar informacion ultimos conocimientos habilidades mejores practicas mujeres empresarias lideres tambien participa actividades consultoria cooperacion dbwc</t>
+          <t>existe diversidad considerable estrategias tratamiento basado atencion primaria trastornos leves moderados paises ocde enfoques estrategicos difieren segun organizacion sistema salud mental provision atencion primaria asi casos siguiendo idiosincrasias practicas individuales atencion primaria glied et tratamiento trastornos mentales leves moderados atencion primaria menos costoso sistemas salud tratamiento especialistas mayoria servicios especializados oms wonca dos mil ocho aumento suficiente cobertura tratamientos depresion atencion primaria resultaron ser uso eficaz recursos salud incluso entornos escasos recursos chisholm et ademas brindar beneficios economicos ayudar regresar trabajo mejorar productividad ocde dos mil doce tratamiento mas eficaz trastornos mentales atencion primaria puede contribuir reducir derivaciones inapropiadas servicios atencion especializada mas costosos nice dos mil once</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>1853</v>
+        <v>2423</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Kennisnet se basa en la demanda y monitorea continuamente las necesidades específicas en TIC y educación. En el informe, se proponen cuatro perspectivas generales para la formación docente. Una de estas perspectivas promueve la tecnología de la información y la comunicación como un recurso para la educación.18 Se espera que el gobierno presente un proyecto de ley al parlamento que proponga una nueva formación docente durante 2009. Tenga en cuenta que es posible que un país alcance varios niveles en el Mismo tiempo.</t>
+          <t>En 2013, celebró una reunión con altos funcionarios de la dirección del Banco Nacional de Abu Dhabi (NBAD) que exploró varias formas de apoyar a las mujeres empresarias en los Emiratos a través de servicios bancarios proporcionados a las PYME por NBAD. El DBWC organiza el evento mensual de alto perfil "Majlis Business" para brindar información sobre los últimos conocimientos, habilidades y mejores prácticas para mujeres empresarias y líderes. También participa en actividades de consultoría en cooperación con DBWC.</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>kennisnet basa demanda monitorea continuamente necesidades especificas tic educacion informe proponen cuatro perspectivas generales formacion docente perspectivas promueve tecnologia informacion comunicacion recurso educacion18 espera gobierno presente proyecto ley parlamento proponga nueva formacion docente dos mil nueve cuenta posible pais alcance varios niveles mismo tiempo</t>
+          <t>dos mil trece celebro reunion altos funcionarios direccion banco nacional abu dhabi nbad exploro varias formas apoyar mujeres empresarias emiratos traves servicios bancarios proporcionados pyme nbad dbwc organiza evento mensual alto perfil majlis business brindar informacion ultimos conocimientos habilidades mejores practicas mujeres empresarias lideres tambien participa actividades consultoria cooperacion dbwc</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>1116</v>
+        <v>1853</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>La variación del rendimiento explicada por el estatus socioeconómico de los estudiantes es mayor (16%) que el promedio de la OCDE (13%). La ruralidad es un aspecto importante de la desventaja en Costa Rica. Los estudiantes de las escuelas rurales tienen más probabilidades de abandonar y atrasarse en su aprendizaje que los de las urbanas, y las escuelas primarias rurales pequeñas muestran las tasas de rendimiento más bajas del país (PEN, 2013). La gran cantidad de pequeñas escuelas primarias ha permitido a Costa Rica llevar servicios educativos a cada pequeño pueblo.</t>
+          <t>Kennisnet se basa en la demanda y monitorea continuamente las necesidades específicas en TIC y educación. En el informe, se proponen cuatro perspectivas generales para la formación docente. Una de estas perspectivas promueve la tecnología de la información y la comunicación como un recurso para la educación.18 Se espera que el gobierno presente un proyecto de ley al parlamento que proponga una nueva formación docente durante 2009. Tenga en cuenta que es posible que un país alcance varios niveles en el Mismo tiempo.</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>variacion rendimiento explicada estatus socioeconomico estudiantes mayor dieciseis promedio ocde trece ruralidad aspecto importante desventaja costa rica estudiantes escuelas rurales mas probabilidades abandonar atrasarse aprendizaje urbanas escuelas primarias rurales pequenas muestran tasas rendimiento mas bajas pais pen dos mil trece gran cantidad pequenas escuelas primarias permitido costa rica llevar servicios educativos cada pequeno pueblo</t>
+          <t>kennisnet basa demanda monitorea continuamente necesidades especificas tic educacion informe proponen cuatro perspectivas generales formacion docente perspectivas promueve tecnologia informacion comunicacion recurso educacion18 espera gobierno presente proyecto ley parlamento proponga nueva formacion docente dos mil nueve cuenta posible pais alcance varios niveles mismo tiempo</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>318</v>
+        <v>1116</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Además, como se ha comentado en la sección anterior, Kazajstán tiene tasas de mortalidad relativamente altas por enfermedades respiratorias, como la EPOC, y gastrointestinales, como la cirrosis hepática, cuyos factores de riesgo reconocidos son el tabaquismo y el consumo de alcohol, respectivamente (OCDE, 2015). Por ejemplo, entre los hombres de 15 años o más, casi el 37% son fumadores diarios, una proporción muy superior a la media de la OCDE del 24%. De hecho, solo tres países de la OCDE informan de una mayor proporción de fumadores diarios entre los hombres de 15 años o más: Letonia 52%, Grecia 43,7% y Turquía 37,3% (Figura 1.12).</t>
+          <t>La variación del rendimiento explicada por el estatus socioeconómico de los estudiantes es mayor (16%) que el promedio de la OCDE (13%). La ruralidad es un aspecto importante de la desventaja en Costa Rica. Los estudiantes de las escuelas rurales tienen más probabilidades de abandonar y atrasarse en su aprendizaje que los de las urbanas, y las escuelas primarias rurales pequeñas muestran las tasas de rendimiento más bajas del país (PEN, 2013). La gran cantidad de pequeñas escuelas primarias ha permitido a Costa Rica llevar servicios educativos a cada pequeño pueblo.</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>ademas comentado seccion anterior kazajstan tasas mortalidad relativamente altas enfermedades respiratorias epoc gastrointestinales cirrosis hepatica cuyos factores riesgo reconocidos tabaquismo consumo alcohol respectivamente ocde dos mil quince ejemplo hombres quince anos mas casi treinta y siete fumadores diarios proporcion superior media ocde veinticuatro hecho solo tres paises ocde informan mayor proporcion fumadores diarios hombres quince anos mas letonia cincuenta y dos grecia 437 turquia 373 figura 112</t>
+          <t>variacion rendimiento explicada estatus socioeconomico estudiantes mayor dieciseis promedio ocde trece ruralidad aspecto importante desventaja costa rica estudiantes escuelas rurales mas probabilidades abandonar atrasarse aprendizaje urbanas escuelas primarias rurales pequenas muestran tasas rendimiento mas bajas pais pen dos mil trece gran cantidad pequenas escuelas primarias permitido costa rica llevar servicios educativos cada pequeno pueblo</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>1311</v>
+        <v>318</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Sus resultados sugieren que las estimaciones de OLS de las primas por habilidades en términos de salarios y resultados de empleo bien pueden proporcionar una estimación del límite inferior de los verdaderos rendimientos de las habilidades. Pero informan cuadros radicalmente diferentes con respecto a la importancia relativa de los rendimientos de la resolución de problemas en entornos ricos en tecnología, a los que me referiré abreviadamente como “habilidades de alfabetización en TIC”. Lane y Conlon (2016), por otro lado, estiman mayores retornos para las habilidades de alfabetización en TIC y el impacto de la escolarización en estas habilidades es menos marcado que para la alfabetización y la aritmética1.</t>
+          <t>Además, como se ha comentado en la sección anterior, Kazajstán tiene tasas de mortalidad relativamente altas por enfermedades respiratorias, como la EPOC, y gastrointestinales, como la cirrosis hepática, cuyos factores de riesgo reconocidos son el tabaquismo y el consumo de alcohol, respectivamente (OCDE, 2015). Por ejemplo, entre los hombres de 15 años o más, casi el 37% son fumadores diarios, una proporción muy superior a la media de la OCDE del 24%. De hecho, solo tres países de la OCDE informan de una mayor proporción de fumadores diarios entre los hombres de 15 años o más: Letonia 52%, Grecia 43,7% y Turquía 37,3% (Figura 1.12).</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>resultados sugieren estimaciones ols primas habilidades terminos salarios resultados empleo bien pueden proporcionar estimacion limite inferior verdaderos rendimientos habilidades informan cuadros radicalmente diferentes respecto importancia relativa rendimientos resolucion problemas entornos ricos tecnologia referire abreviadamente habilidades alfabetizacion tic lane conlon dos mil dieciseis lado estiman mayores retornos habilidades alfabetizacion tic impacto escolarizacion habilidades menos marcado alfabetizacion aritmetica1</t>
+          <t>ademas comentado seccion anterior kazajstan tasas mortalidad relativamente altas enfermedades respiratorias epoc gastrointestinales cirrosis hepatica cuyos factores riesgo reconocidos tabaquismo consumo alcohol respectivamente ocde dos mil quince ejemplo hombres quince anos mas casi treinta y siete fumadores diarios proporcion superior media ocde veinticuatro hecho solo tres paises ocde informan mayor proporcion fumadores diarios hombres quince anos mas letonia cincuenta y dos grecia 437 turquia 373 figura 112</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>2627</v>
+        <v>1311</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>En los cinco países se han tomado medidas para extender la licencia de maternidad a los grupos de trabajadores más vulnerables, ampliar las expectativas de los servicios de atención y educación de la primera infancia como un derecho de los niños y regular el trabajo doméstico remunerado. Se trata de medidas muy importantes para las mujeres de menores recursos y por tanto positivas desde el punto de vista de la formulación de políticas públicas para la equidad socioeconómica. En el largo plazo, desde el punto de vista de las familias que contratan este tipo de mano de obra, tales medidas también deberían crear las condiciones para empujar al Estado a diseñar mejores medidas secuenciales y desfamiliarizadoras.</t>
+          <t>Sus resultados sugieren que las estimaciones de OLS de las primas por habilidades en términos de salarios y resultados de empleo bien pueden proporcionar una estimación del límite inferior de los verdaderos rendimientos de las habilidades. Pero informan cuadros radicalmente diferentes con respecto a la importancia relativa de los rendimientos de la resolución de problemas en entornos ricos en tecnología, a los que me referiré abreviadamente como “habilidades de alfabetización en TIC”. Lane y Conlon (2016), por otro lado, estiman mayores retornos para las habilidades de alfabetización en TIC y el impacto de la escolarización en estas habilidades es menos marcado que para la alfabetización y la aritmética1.</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>cinco paises tomado medidas extender licencia maternidad grupos trabajadores mas vulnerables ampliar expectativas servicios atencion educacion primera infancia derecho ninos regular trabajo domestico remunerado trata medidas importantes mujeres menores recursos positivas punto vista formulacion politicas publicas equidad socioeconomica largo plazo punto vista familias contratan tipo mano obra tales medidas tambien deberian crear condiciones empujar disenar mejores medidas secuenciales desfamiliarizadoras</t>
+          <t>resultados sugieren estimaciones ols primas habilidades terminos salarios resultados empleo bien pueden proporcionar estimacion limite inferior verdaderos rendimientos habilidades informan cuadros radicalmente diferentes respecto importancia relativa rendimientos resolucion problemas entornos ricos tecnologia referire abreviadamente habilidades alfabetizacion tic lane conlon dos mil dieciseis lado estiman mayores retornos habilidades alfabetizacion tic impacto escolarizacion habilidades menos marcado alfabetizacion aritmetica1</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>183</v>
+        <v>2627</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ajustar el sistema de GRD para tener mejor en cuenta la gravedad de los casos tratados por los hospitales universitarios, de forma que se les compense. Llevar a cabo la prevista corporatizaciÃ³n (o "comercializaciÃ³n") de los hospitales con cuidado, de forma que no amenace la igualdad de acceso a la asistencia, especialmente entre regiones. Realizar un estudio exhaustivo de las inversiones que corresponderÃan a las necesidades mÃ¡s acuciantes de la poblaciÃ³n en todo el paÃs para garantizar la modernizaciÃ³n de las envejecidas infraestructuras hospitalarias.</t>
+          <t>En los cinco países se han tomado medidas para extender la licencia de maternidad a los grupos de trabajadores más vulnerables, ampliar las expectativas de los servicios de atención y educación de la primera infancia como un derecho de los niños y regular el trabajo doméstico remunerado. Se trata de medidas muy importantes para las mujeres de menores recursos y por tanto positivas desde el punto de vista de la formulación de políticas públicas para la equidad socioeconómica. En el largo plazo, desde el punto de vista de las familias que contratan este tipo de mano de obra, tales medidas también deberían crear las condiciones para empujar al Estado a diseñar mejores medidas secuenciales y desfamiliarizadoras.</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>ajustar sistema grd tener mejor cuenta gravedad casos tratados hospitales universitarios forma compense llevar cabo prevista corporatizacia3n comercializacia3n hospitales cuidado forma amenace igualdad acceso asistencia especialmente regiones realizar estudio exhaustivo inversiones corresponderaan necesidades mas acuciantes poblacia3n paas garantizar modernizacia3n envejecidas infraestructuras hospitalarias</t>
+          <t>cinco paises tomado medidas extender licencia maternidad grupos trabajadores mas vulnerables ampliar expectativas servicios atencion educacion primera infancia derecho ninos regular trabajo domestico remunerado trata medidas importantes mujeres menores recursos positivas punto vista formulacion politicas publicas equidad socioeconomica largo plazo punto vista familias contratan tipo mano obra tales medidas tambien deberian crear condiciones empujar disenar mejores medidas secuenciales desfamiliarizadoras</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>2564</v>
+        <v>183</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Establecer funciones y responsabilidades institucionales claras para promover el equilibrio de género en el sector público, incluidos los mecanismos independientes de recurso y apelación, que deben estar adecuadamente financiados, dotados de recursos y vinculados a los equipos ejecutivos para garantizar su eficacia. Sensibilizar a los gerentes del sector público sobre las consideraciones de igualdad de género y mejorar la responsabilidad ejecutiva y de gestión para garantizar el equilibrio de género en todos los niveles y grupos ocupacionales, y abordar los problemas de igualdad de género en los lugares de trabajo, incluso a través de marcos de gestión del desempeño. La OCDE también está a la vanguardia de los esfuerzos para comprender y ayudar a los gobiernos a responder a los nuevos desarrollos y preocupaciones, como el gobierno corporativo, la economía de la información y los desafíos del envejecimiento de la población.</t>
+          <t>Ajustar el sistema de GRD para tener mejor en cuenta la gravedad de los casos tratados por los hospitales universitarios, de forma que se les compense. Llevar a cabo la prevista corporatizaciÃ³n (o "comercializaciÃ³n") de los hospitales con cuidado, de forma que no amenace la igualdad de acceso a la asistencia, especialmente entre regiones. Realizar un estudio exhaustivo de las inversiones que corresponderÃan a las necesidades mÃ¡s acuciantes de la poblaciÃ³n en todo el paÃs para garantizar la modernizaciÃ³n de las envejecidas infraestructuras hospitalarias.</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>establecer funciones responsabilidades institucionales claras promover equilibrio genero sector publico incluidos mecanismos independientes recurso apelacion deben adecuadamente financiados dotados recursos vinculados equipos ejecutivos garantizar eficacia sensibilizar gerentes sector publico consideraciones igualdad genero mejorar responsabilidad ejecutiva gestion garantizar equilibrio genero niveles grupos ocupacionales abordar problemas igualdad genero lugares trabajo incluso traves marcos gestion desempeno ocde tambien vanguardia esfuerzos comprender ayudar gobiernos responder nuevos desarrollos preocupaciones gobierno corporativo economia informacion desafios envejecimiento poblacion</t>
+          <t>ajustar sistema grd tener mejor cuenta gravedad casos tratados hospitales universitarios forma compense llevar cabo prevista corporatizacia3n comercializacia3n hospitales cuidado forma amenace igualdad acceso asistencia especialmente regiones realizar estudio exhaustivo inversiones corresponderaan necesidades mas acuciantes poblacia3n paas garantizar modernizacia3n envejecidas infraestructuras hospitalarias</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>761</v>
+        <v>2564</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Sin embargo, debido a que es un sistema de atención de la salud muy enfocado, el punto de partida de Corea en la actualidad está por detrás del de muchos otros países de la OCDE. Revertir esta situación requerirá un compromiso político consistente para desarrollar servicios de atención primaria efectivos durante un largo período de tiempo. Una mejor remuneración y más prácticas de atención primaria ayudarán a sentar las bases, pero deberán contar con el respaldo de una fuerza laboral dedicada a la atención primaria y mejor información para ayudar a la aseguradora única a dirigir el financiamiento a las áreas de necesidad.</t>
+          <t>Establecer funciones y responsabilidades institucionales claras para promover el equilibrio de género en el sector público, incluidos los mecanismos independientes de recurso y apelación, que deben estar adecuadamente financiados, dotados de recursos y vinculados a los equipos ejecutivos para garantizar su eficacia. Sensibilizar a los gerentes del sector público sobre las consideraciones de igualdad de género y mejorar la responsabilidad ejecutiva y de gestión para garantizar el equilibrio de género en todos los niveles y grupos ocupacionales, y abordar los problemas de igualdad de género en los lugares de trabajo, incluso a través de marcos de gestión del desempeño. La OCDE también está a la vanguardia de los esfuerzos para comprender y ayudar a los gobiernos a responder a los nuevos desarrollos y preocupaciones, como el gobierno corporativo, la economía de la información y los desafíos del envejecimiento de la población.</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>embargo debido sistema atencion salud enfocado punto partida corea actualidad detras paises ocde revertir situacion requerira compromiso politico consistente desarrollar servicios atencion primaria efectivos largo periodo tiempo mejor remuneracion mas practicas atencion primaria ayudaran sentar bases deberan contar respaldo fuerza laboral dedicada atencion primaria mejor informacion ayudar aseguradora unica dirigir financiamiento areas necesidad</t>
+          <t>establecer funciones responsabilidades institucionales claras promover equilibrio genero sector publico incluidos mecanismos independientes recurso apelacion deben adecuadamente financiados dotados recursos vinculados equipos ejecutivos garantizar eficacia sensibilizar gerentes sector publico consideraciones igualdad genero mejorar responsabilidad ejecutiva gestion garantizar equilibrio genero niveles grupos ocupacionales abordar problemas igualdad genero lugares trabajo incluso traves marcos gestion desempeno ocde tambien vanguardia esfuerzos comprender ayudar gobiernos responder nuevos desarrollos preocupaciones gobierno corporativo economia informacion desafios envejecimiento poblacion</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>2468</v>
+        <v>761</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>El trabajo doméstico y de cuidados no remunerado también se mide como parte de la Encuesta oficial de población activa. Se abolieron nuevamente las cuotas de la escuela primaria y se reintrodujeron los subsidios a los insumos agrícolas, en parte debido a la presión pública respaldada por la campaña. Las iniciativas de presupuestos de género en otras partes de África se han basado en gran medida en la experiencia de Tanzania como modelo.</t>
+          <t>Sin embargo, debido a que es un sistema de atención de la salud muy enfocado, el punto de partida de Corea en la actualidad está por detrás del de muchos otros países de la OCDE. Revertir esta situación requerirá un compromiso político consistente para desarrollar servicios de atención primaria efectivos durante un largo período de tiempo. Una mejor remuneración y más prácticas de atención primaria ayudarán a sentar las bases, pero deberán contar con el respaldo de una fuerza laboral dedicada a la atención primaria y mejor información para ayudar a la aseguradora única a dirigir el financiamiento a las áreas de necesidad.</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>trabajo domestico cuidados remunerado tambien mide parte encuesta oficial poblacion activa abolieron nuevamente cuotas escuela primaria reintrodujeron subsidios insumos agricolas parte debido presion publica respaldada campana iniciativas presupuestos genero partes africa basado gran medida experiencia tanzania modelo</t>
+          <t>embargo debido sistema atencion salud enfocado punto partida corea actualidad detras paises ocde revertir situacion requerira compromiso politico consistente desarrollar servicios atencion primaria efectivos largo periodo tiempo mejor remuneracion mas practicas atencion primaria ayudaran sentar bases deberan contar respaldo fuerza laboral dedicada atencion primaria mejor informacion ayudar aseguradora unica dirigir financiamiento areas necesidad</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>482</v>
+        <v>2468</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Restringir la provisión de atención médica pública también afectaría el potencial de crecimiento a través de un efecto perjudicial sobre la salud y, por lo tanto, la capacidad de las personas para participar en el mercado laboral. El estado de salud afecta la oferta de mano de obra, que será aún más importante para el crecimiento económico a medida que aumente la tasa de dependencia de la vejez. Las personas con buena salud son más productivas, tienen menos licencia por enfermedad y disfrutan de mejores oportunidades para desarrollar capital humano. Las posibilidades de que se jubilen anticipadamente se reducen.</t>
+          <t>El trabajo doméstico y de cuidados no remunerado también se mide como parte de la Encuesta oficial de población activa. Se abolieron nuevamente las cuotas de la escuela primaria y se reintrodujeron los subsidios a los insumos agrícolas, en parte debido a la presión pública respaldada por la campaña. Las iniciativas de presupuestos de género en otras partes de África se han basado en gran medida en la experiencia de Tanzania como modelo.</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>restringir provision atencion medica publica tambien afectaria potencial crecimiento traves efecto perjudicial salud capacidad personas participar mercado laboral salud afecta oferta mano obra sera aun mas importante crecimiento economico medida aumente tasa dependencia vejez personas buena salud mas productivas menos licencia enfermedad disfrutan mejores oportunidades desarrollar capital humano posibilidades jubilen anticipadamente reducen</t>
+          <t>trabajo domestico cuidados remunerado tambien mide parte encuesta oficial poblacion activa abolieron nuevamente cuotas escuela primaria reintrodujeron subsidios insumos agricolas parte debido presion publica respaldada campana iniciativas presupuestos genero partes africa basado gran medida experiencia tanzania modelo</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>617</v>
+        <v>482</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Sin embargo, permiten a los formuladores de políticas y epidemiólogos monitorear el impacto de las reformas y políticas. Según Rosstat (2009b), el número de muertes directamente relacionadas con el consumo de alcohol disminuyó en un 40% entre 2005 y 2008. No obstante, 76 268 personas murieron en 2008 debido al consumo excesivo de alcohol.</t>
+          <t>Restringir la provisión de atención médica pública también afectaría el potencial de crecimiento a través de un efecto perjudicial sobre la salud y, por lo tanto, la capacidad de las personas para participar en el mercado laboral. El estado de salud afecta la oferta de mano de obra, que será aún más importante para el crecimiento económico a medida que aumente la tasa de dependencia de la vejez. Las personas con buena salud son más productivas, tienen menos licencia por enfermedad y disfrutan de mejores oportunidades para desarrollar capital humano. Las posibilidades de que se jubilen anticipadamente se reducen.</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>embargo permiten formuladores politicas epidemiologos monitorear impacto reformas politicas segun rosstat 2009b numero muertes directamente relacionadas consumo alcohol disminuyo cuarenta dos mil cinco dos mil ocho obstante setenta y seis doscientos sesenta y ocho personas murieron dos mil ocho debido consumo excesivo alcohol</t>
+          <t>restringir provision atencion medica publica tambien afectaria potencial crecimiento traves efecto perjudicial salud capacidad personas participar mercado laboral salud afecta oferta mano obra sera aun mas importante crecimiento economico medida aumente tasa dependencia vejez personas buena salud mas productivas menos licencia enfermedad disfrutan mejores oportunidades desarrollar capital humano posibilidades jubilen anticipadamente reducen</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>346</v>
+        <v>617</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>De hecho, la mortalidad a los 30 días por IAM registró uno de los descensos más pronunciados de la UE y se situó en el bajísimo nivel de 6,9 ​​por 100 pacientes en 2015. Esta cifra es inferior a la de Alemania (7,7), Austria (7,4) y el Reino Unido. (7.2) (Figura 10). Sin embargo, la mortalidad a los 30 días por accidente cerebrovascular es promedio en comparación con otros países y podría mejorarse aún más, particularmente dado que los países vecinos, Alemania y Austria, logran tasas notablemente más bajas.</t>
+          <t>Sin embargo, permiten a los formuladores de políticas y epidemiólogos monitorear el impacto de las reformas y políticas. Según Rosstat (2009b), el número de muertes directamente relacionadas con el consumo de alcohol disminuyó en un 40% entre 2005 y 2008. No obstante, 76 268 personas murieron en 2008 debido al consumo excesivo de alcohol.</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>hecho mortalidad treinta dias iam registro descensos mas pronunciados ue situo bajisimo nivel 69 cien pacientes dos mil quince cifra inferior alemania 77 austria 74 reino unido 72 figura diez embargo mortalidad treinta dias accidente cerebrovascular promedio comparacion paises podria mejorarse aun mas particularmente dado paises vecinos alemania austria logran tasas notablemente mas bajas</t>
+          <t>embargo permiten formuladores politicas epidemiologos monitorear impacto reformas politicas segun rosstat 2009b numero muertes directamente relacionadas consumo alcohol disminuyo cuarenta dos mil cinco dos mil ocho obstante setenta y seis doscientos sesenta y ocho personas murieron dos mil ocho debido consumo excesivo alcohol</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>2401</v>
+        <v>346</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Instituciones y mecanismos públicos sólidos para garantizar la rendición de cuentas en el cumplimiento de los compromisos de igualdad de género y transversalización. Herramientas para la formulación de políticas inclusivas y basadas en evidencia que tengan en cuenta efectos potencialmente diferentes en mujeres y hombres. Mecanismos de monitoreo efectivos y evidencia confiable desagregada por género para tomar decisiones políticas informadas. Por ejemplo, el Instituto Nacional de la Mujer de México desarrolló un mecanismo institucional llamado “Sistema Nacional para la Igualdad entre Mujeres y Hombres”, que coordina el trabajo relacionado con el género de 42 agencias federales.</t>
+          <t>De hecho, la mortalidad a los 30 días por IAM registró uno de los descensos más pronunciados de la UE y se situó en el bajísimo nivel de 6,9 ​​por 100 pacientes en 2015. Esta cifra es inferior a la de Alemania (7,7), Austria (7,4) y el Reino Unido. (7.2) (Figura 10). Sin embargo, la mortalidad a los 30 días por accidente cerebrovascular es promedio en comparación con otros países y podría mejorarse aún más, particularmente dado que los países vecinos, Alemania y Austria, logran tasas notablemente más bajas.</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>instituciones mecanismos publicos solidos garantizar rendicion cuentas cumplimiento compromisos igualdad genero transversalizacion herramientas formulacion politicas inclusivas basadas evidencia cuenta efectos potencialmente diferentes mujeres hombres mecanismos monitoreo efectivos evidencia confiable desagregada genero tomar decisiones politicas informadas ejemplo instituto nacional mujer mexico desarrollo mecanismo institucional llamado sistema nacional igualdad mujeres hombres coordina trabajo relacionado genero cuarenta y dos agencias federales</t>
+          <t>hecho mortalidad treinta dias iam registro descensos mas pronunciados ue situo bajisimo nivel 69 cien pacientes dos mil quince cifra inferior alemania 77 austria 74 reino unido 72 figura diez embargo mortalidad treinta dias accidente cerebrovascular promedio comparacion paises podria mejorarse aun mas particularmente dado paises vecinos alemania austria logran tasas notablemente mas bajas</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>1392</v>
+        <v>2401</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Dado que los participantes tuvieron un amplio grado de libertad para diseñar sus estrategias, la variabilidad permite extraer varias lecciones preliminares. Tras analizar las medidas de desarrollo profesional aplicadas por los equipos participantes en el proyecto, se destacan las principales lecciones extraídas de los planes de desarrollo profesional del profesorado aplicados por los equipos de los países para ayudar a los profesores participantes a fomentar la creatividad y el pensamiento crítico de sus alumnos. Como mínimo, los equipos debían presentar a los profesores los materiales del proyecto, los objetivos y los enfoques pedagógicos sugeridos organizando una sesión de formación inicial de un día de duración al inicio del proyecto.</t>
+          <t>Instituciones y mecanismos públicos sólidos para garantizar la rendición de cuentas en el cumplimiento de los compromisos de igualdad de género y transversalización. Herramientas para la formulación de políticas inclusivas y basadas en evidencia que tengan en cuenta efectos potencialmente diferentes en mujeres y hombres. Mecanismos de monitoreo efectivos y evidencia confiable desagregada por género para tomar decisiones políticas informadas. Por ejemplo, el Instituto Nacional de la Mujer de México desarrolló un mecanismo institucional llamado “Sistema Nacional para la Igualdad entre Mujeres y Hombres”, que coordina el trabajo relacionado con el género de 42 agencias federales.</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>dado participantes amplio grado libertad disenar estrategias variabilidad permite extraer varias lecciones preliminares tras analizar medidas desarrollo profesional aplicadas equipos participantes proyecto destacan principales lecciones extraidas planes desarrollo profesional profesorado aplicados equipos paises ayudar profesores participantes fomentar creatividad pensamiento critico alumnos minimo equipos debian presentar profesores materiales proyecto objetivos enfoques pedagogicos sugeridos organizando sesion formacion inicial dia duracion inicio proyecto</t>
+          <t>instituciones mecanismos publicos solidos garantizar rendicion cuentas cumplimiento compromisos igualdad genero transversalizacion herramientas formulacion politicas inclusivas basadas evidencia cuenta efectos potencialmente diferentes mujeres hombres mecanismos monitoreo efectivos evidencia confiable desagregada genero tomar decisiones politicas informadas ejemplo instituto nacional mujer mexico desarrollo mecanismo institucional llamado sistema nacional igualdad mujeres hombres coordina trabajo relacionado genero cuarenta y dos agencias federales</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>332</v>
+        <v>1392</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>En Ecuador, la Encuesta Demográfica y de Salud Materno Infantil (ENDEMAIN, 2004) encontró que el 68% de las personas de 60 a 74 años tenían este tipo de dificultades, al igual que el 82% de los mayores de 75 años. Según datos del Latinobarómetro (ver gráfico IV.7), los problemas para acceder a la atención de la salud son más agudos para las personas mayores con un nivel socioeconómico más bajo. Las personas de nivel socioeconómico extremadamente bajo no tienen acceso a la atención de la salud.</t>
+          <t>Dado que los participantes tuvieron un amplio grado de libertad para diseñar sus estrategias, la variabilidad permite extraer varias lecciones preliminares. Tras analizar las medidas de desarrollo profesional aplicadas por los equipos participantes en el proyecto, se destacan las principales lecciones extraídas de los planes de desarrollo profesional del profesorado aplicados por los equipos de los países para ayudar a los profesores participantes a fomentar la creatividad y el pensamiento crítico de sus alumnos. Como mínimo, los equipos debían presentar a los profesores los materiales del proyecto, los objetivos y los enfoques pedagógicos sugeridos organizando una sesión de formación inicial de un día de duración al inicio del proyecto.</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>ecuador encuesta demografica salud materno infantil endemain dos mil cuatro encontro sesenta y ocho personas sesenta setenta y cuatro anos tenian tipo dificultades igual ochenta y dos mayores setenta y cinco anos segun datos latinobarometro ver grafico iv7 problemas acceder atencion salud mas agudos personas mayores nivel socioeconomico mas bajo personas nivel socioeconomico extremadamente bajo acceso atencion salud</t>
+          <t>dado participantes amplio grado libertad disenar estrategias variabilidad permite extraer varias lecciones preliminares tras analizar medidas desarrollo profesional aplicadas equipos participantes proyecto destacan principales lecciones extraidas planes desarrollo profesional profesorado aplicados equipos paises ayudar profesores participantes fomentar creatividad pensamiento critico alumnos minimo equipos debian presentar profesores materiales proyecto objetivos enfoques pedagogicos sugeridos organizando sesion formacion inicial dia duracion inicio proyecto</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Estos indicadores incluyen, por ejemplo, la capacidad de registrar a personas con esquizofrenia, trastorno bipolar y otras psicosis y una serie de pruebas de detección (IMC, consumo de alcohol, glucosa en sangre) para pacientes con esquizofrenia, trastorno bipolar y otras psicosis. También existe un indicador QOF para “El porcentaje de pacientes en el registro que tienen un plan de atención integral documentado en los registros acordados entre las personas, sus familiares y/o cuidadores según corresponda” (BMA (2014). Para una lista completa de indicadores QoF 2013/14 ver BMA, 2014).</t>
+          <t>En Ecuador, la Encuesta Demográfica y de Salud Materno Infantil (ENDEMAIN, 2004) encontró que el 68% de las personas de 60 a 74 años tenían este tipo de dificultades, al igual que el 82% de los mayores de 75 años. Según datos del Latinobarómetro (ver gráfico IV.7), los problemas para acceder a la atención de la salud son más agudos para las personas mayores con un nivel socioeconómico más bajo. Las personas de nivel socioeconómico extremadamente bajo no tienen acceso a la atención de la salud.</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>indicadores incluyen ejemplo capacidad registrar personas esquizofrenia trastorno bipolar psicosis serie pruebas deteccion imc consumo alcohol glucosa sangre pacientes esquizofrenia trastorno bipolar psicosis tambien existe indicador qof porcentaje pacientes registro plan atencion integral documentado registros acordados personas familiares cuidadores segun corresponda bma dos mil catorce lista completa indicadores qof 201314 ver bma dos mil catorce</t>
+          <t>ecuador encuesta demografica salud materno infantil endemain dos mil cuatro encontro sesenta y ocho personas sesenta setenta y cuatro anos tenian tipo dificultades igual ochenta y dos mayores setenta y cinco anos segun datos latinobarometro ver grafico iv7 problemas acceder atencion salud mas agudos personas mayores nivel socioeconomico mas bajo personas nivel socioeconomico extremadamente bajo acceso atencion salud</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>934</v>
+        <v>243</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Los servicios de salud mental son una parte integral de la atención médica y de salud (ver sección 3.1). Las disposiciones generales sobre el contenido y la ejecución de la atención psiquiátrica se encuentran en la Ley de Servicios Médicos y de Salud (1982:763) y en la Ley de Servicios Médicos y de Salud (Actividades Profesionales) (Cuestionario de salud mental de la OCDE, 2013). Esta Ley subraya los principios clave del sistema de salud sueco: servicios universales, de fácil acceso y de buena calidad.</t>
+          <t>Estos indicadores incluyen, por ejemplo, la capacidad de registrar a personas con esquizofrenia, trastorno bipolar y otras psicosis y una serie de pruebas de detección (IMC, consumo de alcohol, glucosa en sangre) para pacientes con esquizofrenia, trastorno bipolar y otras psicosis. También existe un indicador QOF para “El porcentaje de pacientes en el registro que tienen un plan de atención integral documentado en los registros acordados entre las personas, sus familiares y/o cuidadores según corresponda” (BMA (2014). Para una lista completa de indicadores QoF 2013/14 ver BMA, 2014).</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>servicios salud mental parte integral atencion medica salud ver seccion 31 disposiciones generales contenido ejecucion atencion psiquiatrica encuentran ley servicios medicos salud 1982763 ley servicios medicos salud actividades profesionales cuestionario salud mental ocde dos mil trece ley subraya principios clave sistema salud sueco servicios universales facil acceso buena calidad</t>
+          <t>indicadores incluyen ejemplo capacidad registrar personas esquizofrenia trastorno bipolar psicosis serie pruebas deteccion imc consumo alcohol glucosa sangre pacientes esquizofrenia trastorno bipolar psicosis tambien existe indicador qof porcentaje pacientes registro plan atencion integral documentado registros acordados personas familiares cuidadores segun corresponda bma dos mil catorce lista completa indicadores qof 201314 ver bma dos mil catorce</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>814</v>
+        <v>934</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Los aumentos en la cobertura del seguro de salud luego se estancaron, pero repuntaron después de 2008, llegando al 94,7% de la población en 2014 (ver Figura 1.7 en el Capítulo 1), logrando así prácticamente la cobertura universal de salud (UHC). En conjunto, estas expansiones permitieron que la población sin seguro se redujera del 12,4 % de la población en 2008 al 5,3 % en 2014 (Cuadro 2.1). Por otra parte, la cobertura del SEM con respecto a la población económicamente activa asalariada rondaba el 72%, mientras que entre la población económicamente activa no asalariada era del 80%. El cuadro 2.2 muestra la cobertura de aseguramiento de la población por quintil de ingreso, características sociodemográficas, por sexo y ocupación detallada.</t>
+          <t>Los servicios de salud mental son una parte integral de la atención médica y de salud (ver sección 3.1). Las disposiciones generales sobre el contenido y la ejecución de la atención psiquiátrica se encuentran en la Ley de Servicios Médicos y de Salud (1982:763) y en la Ley de Servicios Médicos y de Salud (Actividades Profesionales) (Cuestionario de salud mental de la OCDE, 2013). Esta Ley subraya los principios clave del sistema de salud sueco: servicios universales, de fácil acceso y de buena calidad.</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>aumentos cobertura seguro salud luego estancaron repuntaron despues dos mil ocho llegando 947 poblacion dos mil catorce ver figura 17 capitulo logrando asi practicamente cobertura universal salud uhc conjunto expansiones permitieron poblacion seguro redujera 124 poblacion dos mil ocho 53 dos mil catorce cuadro 21 parte cobertura sem respecto poblacion economicamente activa asalariada rondaba setenta y dos mientras poblacion economicamente activa asalariada ochenta cuadro 22 muestra cobertura aseguramiento poblacion quintil ingreso caracteristicas sociodemograficas sexo ocupacion detallada</t>
+          <t>servicios salud mental parte integral atencion medica salud ver seccion 31 disposiciones generales contenido ejecucion atencion psiquiatrica encuentran ley servicios medicos salud 1982763 ley servicios medicos salud actividades profesionales cuestionario salud mental ocde dos mil trece ley subraya principios clave sistema salud sueco servicios universales facil acceso buena calidad</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>1052</v>
+        <v>814</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Las tres competencias son importantes para comprender y abordar de forma crítica las cuestiones relacionadas con la ciencia y la tecnología, que se están convirtiendo rápidamente en omnipresentes. También demuestran que el compromiso con la ciencia y las actitudes positivas hacia la ciencia están estrechamente relacionados, en formas que también dependen del dominio de la ciencia por parte de los alumnos. En concreto, la relación positiva entre el rendimiento en ciencias y las expectativas de futuras carreras científicas es mayor entre los alumnos que más disfrutan aprendiendo ciencias.</t>
+          <t>Los aumentos en la cobertura del seguro de salud luego se estancaron, pero repuntaron después de 2008, llegando al 94,7% de la población en 2014 (ver Figura 1.7 en el Capítulo 1), logrando así prácticamente la cobertura universal de salud (UHC). En conjunto, estas expansiones permitieron que la población sin seguro se redujera del 12,4 % de la población en 2008 al 5,3 % en 2014 (Cuadro 2.1). Por otra parte, la cobertura del SEM con respecto a la población económicamente activa asalariada rondaba el 72%, mientras que entre la población económicamente activa no asalariada era del 80%. El cuadro 2.2 muestra la cobertura de aseguramiento de la población por quintil de ingreso, características sociodemográficas, por sexo y ocupación detallada.</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>tres competencias importantes comprender abordar forma critica cuestiones relacionadas ciencia tecnologia estan convirtiendo rapidamente omnipresentes tambien demuestran compromiso ciencia actitudes positivas hacia ciencia estan estrechamente relacionados formas tambien dependen dominio ciencia parte alumnos concreto relacion positiva rendimiento ciencias expectativas futuras carreras cientificas mayor alumnos mas disfrutan aprendiendo ciencias</t>
+          <t>aumentos cobertura seguro salud luego estancaron repuntaron despues dos mil ocho llegando 947 poblacion dos mil catorce ver figura 17 capitulo logrando asi practicamente cobertura universal salud uhc conjunto expansiones permitieron poblacion seguro redujera 124 poblacion dos mil ocho 53 dos mil catorce cuadro 21 parte cobertura sem respecto poblacion economicamente activa asalariada rondaba setenta y dos mientras poblacion economicamente activa asalariada ochenta cuadro 22 muestra cobertura aseguramiento poblacion quintil ingreso caracteristicas sociodemograficas sexo ocupacion detallada</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>788</v>
+        <v>1052</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Tal enfoque representa una buena práctica en la formulación del presupuesto. Al mismo tiempo, sin embargo, existe la percepción desde el lado de la salud de que las decisiones reales de asignación todavía están determinadas en gran medida por factores menos tangibles, como las relaciones interpersonales y las evaluaciones subjetivas en lugar de objetivas de estos planes de negocios. Si tienen un caso sólido, esto puede conducir a aumentos en las subvenciones condicionales para la salud.</t>
+          <t>Las tres competencias son importantes para comprender y abordar de forma crítica las cuestiones relacionadas con la ciencia y la tecnología, que se están convirtiendo rápidamente en omnipresentes. También demuestran que el compromiso con la ciencia y las actitudes positivas hacia la ciencia están estrechamente relacionados, en formas que también dependen del dominio de la ciencia por parte de los alumnos. En concreto, la relación positiva entre el rendimiento en ciencias y las expectativas de futuras carreras científicas es mayor entre los alumnos que más disfrutan aprendiendo ciencias.</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>tal enfoque representa buena practica formulacion presupuesto mismo tiempo embargo existe percepcion lado salud decisiones reales asignacion todavia estan determinadas gran medida factores menos tangibles relaciones interpersonales evaluaciones subjetivas lugar objetivas planes negocios si caso solido puede conducir aumentos subvenciones condicionales salud</t>
+          <t>tres competencias importantes comprender abordar forma critica cuestiones relacionadas ciencia tecnologia estan convirtiendo rapidamente omnipresentes tambien demuestran compromiso ciencia actitudes positivas hacia ciencia estan estrechamente relacionados formas tambien dependen dominio ciencia parte alumnos concreto relacion positiva rendimiento ciencias expectativas futuras carreras cientificas mayor alumnos mas disfrutan aprendiendo ciencias</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>2622</v>
+        <v>788</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>El desalojo sólo puede tener lugar en determinadas circunstancias muy excepcionales y con arreglo a criterios estrictos impuestos por el derecho internacional. Los Estados deben tomar ciertas medidas para cumplir con los estándares internacionales, como adoptar e implementar medidas especiales para proteger a las mujeres de los desalojos, por ejemplo, otorgando títulos de propiedad de la tierra y la vivienda a las mujeres. Los Estados deben evaluar el impacto diferenciado de los desalojos sobre las mujeres para que el impacto específico sobre ellas se aborde de manera adecuada.</t>
+          <t>Tal enfoque representa una buena práctica en la formulación del presupuesto. Al mismo tiempo, sin embargo, existe la percepción desde el lado de la salud de que las decisiones reales de asignación todavía están determinadas en gran medida por factores menos tangibles, como las relaciones interpersonales y las evaluaciones subjetivas en lugar de objetivas de estos planes de negocios. Si tienen un caso sólido, esto puede conducir a aumentos en las subvenciones condicionales para la salud.</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>desalojo solo puede tener lugar determinadas circunstancias excepcionales arreglo criterios estrictos impuestos derecho internacional deben tomar ciertas medidas cumplir estandares internacionales adoptar implementar medidas especiales proteger mujeres desalojos ejemplo otorgando titulos propiedad tierra vivienda mujeres deben evaluar impacto diferenciado desalojos mujeres impacto especifico aborde manera adecuada</t>
+          <t>tal enfoque representa buena practica formulacion presupuesto mismo tiempo embargo existe percepcion lado salud decisiones reales asignacion todavia estan determinadas gran medida factores menos tangibles relaciones interpersonales evaluaciones subjetivas lugar objetivas planes negocios si caso solido puede conducir aumentos subvenciones condicionales salud</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>713</v>
+        <v>2622</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>A través de un cuestionario, AGENAS monitorea el cumplimiento de las recomendaciones y busca comprender las barreras que encuentran las R&amp;AP en la implementación. La atención de alta calidad es una atención que es segura, eficaz y centrada en el paciente, y nunca debe darse por sentada. Los sistemas de atención médica enfrentan enormes desafíos: necesidades y procesos de atención complejos, mayores demandas de atención médica (especialmente para afecciones crónicas) y, lo que es más importante, un panorama económico en el que los sistemas de atención médica tendrán que lograr más por menos.</t>
+          <t>El desalojo sólo puede tener lugar en determinadas circunstancias muy excepcionales y con arreglo a criterios estrictos impuestos por el derecho internacional. Los Estados deben tomar ciertas medidas para cumplir con los estándares internacionales, como adoptar e implementar medidas especiales para proteger a las mujeres de los desalojos, por ejemplo, otorgando títulos de propiedad de la tierra y la vivienda a las mujeres. Los Estados deben evaluar el impacto diferenciado de los desalojos sobre las mujeres para que el impacto específico sobre ellas se aborde de manera adecuada.</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>traves cuestionario agenas monitorea cumplimiento recomendaciones busca comprender barreras encuentran r ap implementacion atencion alta calidad atencion segura eficaz centrada paciente nunca debe darse sentada sistemas atencion medica enfrentan enormes desafios necesidades procesos atencion complejos mayores demandas atencion medica especialmente afecciones cronicas mas importante panorama economico sistemas atencion medica tendran lograr mas menos</t>
+          <t>desalojo solo puede tener lugar determinadas circunstancias excepcionales arreglo criterios estrictos impuestos derecho internacional deben tomar ciertas medidas cumplir estandares internacionales adoptar implementar medidas especiales proteger mujeres desalojos ejemplo otorgando titulos propiedad tierra vivienda mujeres deben evaluar impacto diferenciado desalojos mujeres impacto especifico aborde manera adecuada</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>838</v>
+        <v>713</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Estas cifras plantean preguntas importantes sobre por qué el éxito ha variado tanto entre países y en qué medida los sistemas y políticas de atención de la salud ayudan a explicar esta variación. Numerosos estudios han demostrado que los niveles crecientes de obesidad y diabetes están reduciendo nuestra capacidad para avanzar más en la reducción de la carga de ECV. Algunos estudios muestran que el patrón de disminución de la mortalidad está llegando a su fin o incluso revirtiéndose entre algunos grupos de población, en particular los grupos de edad más jóvenes (Wilson y Siskind.,</t>
+          <t>A través de un cuestionario, AGENAS monitorea el cumplimiento de las recomendaciones y busca comprender las barreras que encuentran las R&amp;AP en la implementación. La atención de alta calidad es una atención que es segura, eficaz y centrada en el paciente, y nunca debe darse por sentada. Los sistemas de atención médica enfrentan enormes desafíos: necesidades y procesos de atención complejos, mayores demandas de atención médica (especialmente para afecciones crónicas) y, lo que es más importante, un panorama económico en el que los sistemas de atención médica tendrán que lograr más por menos.</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>cifras plantean preguntas importantes exito variado paises medida sistemas politicas atencion salud ayudan explicar variacion numerosos estudios demostrado niveles crecientes obesidad diabetes estan reduciendo capacidad avanzar mas reduccion carga ecv estudios muestran patron disminucion mortalidad llegando fin incluso revirtiendose grupos poblacion particular grupos edad mas jovenes wilson siskind</t>
+          <t>traves cuestionario agenas monitorea cumplimiento recomendaciones busca comprender barreras encuentran r ap implementacion atencion alta calidad atencion segura eficaz centrada paciente nunca debe darse sentada sistemas atencion medica enfrentan enormes desafios necesidades procesos atencion complejos mayores demandas atencion medica especialmente afecciones cronicas mas importante panorama economico sistemas atencion medica tendran lograr mas menos</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>2710</v>
+        <v>838</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Aunque las cuotas compensan las barreras reales que impiden que las mujeres ocupen la parte que les corresponde de los escaños políticos, se ha argumentado que contradicen los principios de igualdad de oportunidades, ya que se da preferencia a las mujeres sobre los hombres.17 También se ha observado que las cuotas son difíciles de aplicar en los sistemas de ganador único, en los que cada partido designa a un único candidato por distrito. Además, la reelección de los parlamentarios limita el índice de rotación de los miembros en cada elección, lo que dificulta el cumplimiento de las cuotas de género. Un vistazo al número de Jefas de Estado o de Gobierno revela que estos cargos siguen siendo esquivos para las mujeres. Cabe destacar la elección de Jefas de Estado o de Gobierno en Islandia en 2009, en Haití y la República de Moldova en 2008, en Argentina, India y Ucrania en 2007, en Chile en 2006 y en Alemania y Liberia en 2005.</t>
+          <t>Estas cifras plantean preguntas importantes sobre por qué el éxito ha variado tanto entre países y en qué medida los sistemas y políticas de atención de la salud ayudan a explicar esta variación. Numerosos estudios han demostrado que los niveles crecientes de obesidad y diabetes están reduciendo nuestra capacidad para avanzar más en la reducción de la carga de ECV. Algunos estudios muestran que el patrón de disminución de la mortalidad está llegando a su fin o incluso revirtiéndose entre algunos grupos de población, en particular los grupos de edad más jóvenes (Wilson y Siskind.,</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>aunque cuotas compensan barreras reales impiden mujeres ocupen parte corresponde escanos politicos argumentado contradicen principios igualdad oportunidades da preferencia mujeres hombres17 tambien observado cuotas dificiles aplicar sistemas ganador unico cada partido designa unico candidato distrito ademas reeleccion parlamentarios limita indice rotacion miembros cada eleccion dificulta cumplimiento cuotas genero vistazo numero jefas gobierno revela cargos siguen siendo esquivos mujeres cabe destacar eleccion jefas gobierno islandia dos mil nueve haiti republica moldova dos mil ocho argentina india ucrania dos mil siete chile dos mil seis alemania liberia dos mil cinco</t>
+          <t>cifras plantean preguntas importantes exito variado paises medida sistemas politicas atencion salud ayudan explicar variacion numerosos estudios demostrado niveles crecientes obesidad diabetes estan reduciendo capacidad avanzar mas reduccion carga ecv estudios muestran patron disminucion mortalidad llegando fin incluso revirtiendose grupos poblacion particular grupos edad mas jovenes wilson siskind</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>2940</v>
+        <v>2710</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Las condicionalidades "duras" han tenido efectos positivos en la matriculación escolar de los niños en algunos contextos,51 pero en otros los resultados de las transferencias condicionadas para los niños no suelen ser mejores que las no condicionadas52 o están asociadas a la existencia y calidad de los servicios públicos.55 Además, el tiempo y los esfuerzos de las mujeres para cumplir las condicionalidades no aportan beneficios sociales adicionales.54 La pérdida en el bienestar de las mujeres impuesta por las condicionalidades puede ser mayor que el beneficio en efectivo, como demuestra el caso de Guatemala.55 Esto apoya la eliminación de las condicionalidades. Cuando existen datos desglosados por sexo, las estadÃsticas muestran que la cobertura para las mujeres es inferior. Este es especialmente el caso en los países con sistemas de pensiones contributivos, ya que los bajos e intermitentes patrones de empleo formal de las mujeres hacen que tengan menos capacidad que los hombres para cotizar en nómina.58 En los sistemas de pensiones contributivos, una forma de reconocer el trabajo doméstico y de cuidados no remunerado es a través de créditos.</t>
+          <t>Aunque las cuotas compensan las barreras reales que impiden que las mujeres ocupen la parte que les corresponde de los escaños políticos, se ha argumentado que contradicen los principios de igualdad de oportunidades, ya que se da preferencia a las mujeres sobre los hombres.17 También se ha observado que las cuotas son difíciles de aplicar en los sistemas de ganador único, en los que cada partido designa a un único candidato por distrito. Además, la reelección de los parlamentarios limita el índice de rotación de los miembros en cada elección, lo que dificulta el cumplimiento de las cuotas de género. Un vistazo al número de Jefas de Estado o de Gobierno revela que estos cargos siguen siendo esquivos para las mujeres. Cabe destacar la elección de Jefas de Estado o de Gobierno en Islandia en 2009, en Haití y la República de Moldova en 2008, en Argentina, India y Ucrania en 2007, en Chile en 2006 y en Alemania y Liberia en 2005.</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>condicionalidades duras efectos positivos matriculacion escolar ninos contextos51 resultados transferencias condicionadas ninos suelen ser mejores condicionadas52 estan asociadas existencia calidad servicios publicos55 ademas tiempo esfuerzos mujeres cumplir condicionalidades aportan beneficios sociales adicionales54 perdida bienestar mujeres impuesta condicionalidades puede ser mayor beneficio efectivo demuestra caso guatemala55 apoya eliminacion condicionalidades existen datos desglosados sexo estadasticas muestran cobertura mujeres inferior especialmente caso paises sistemas pensiones contributivos bajos intermitentes patrones empleo formal mujeres hacen menos capacidad hombres cotizar nomina58 sistemas pensiones contributivos forma reconocer trabajo domestico cuidados remunerado traves creditos</t>
+          <t>aunque cuotas compensan barreras reales impiden mujeres ocupen parte corresponde escanos politicos argumentado contradicen principios igualdad oportunidades da preferencia mujeres hombres17 tambien observado cuotas dificiles aplicar sistemas ganador unico cada partido designa unico candidato distrito ademas reeleccion parlamentarios limita indice rotacion miembros cada eleccion dificulta cumplimiento cuotas genero vistazo numero jefas gobierno revela cargos siguen siendo esquivos mujeres cabe destacar eleccion jefas gobierno islandia dos mil nueve haiti republica moldova dos mil ocho argentina india ucrania dos mil siete chile dos mil seis alemania liberia dos mil cinco</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>2348</v>
+        <v>2940</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Hay 45 ONG que se centran en los derechos de la mujer en Uganda. No trabajan de forma aislada, sino en colaboración con el Ministerio de Género, Trabajo y Desarrollo Social. Esta organización se formó para representar una voz unida de mujeres, así como para crear una plataforma en la que las mujeres presentaran colectivamente cuestiones de su vida política y económica y otros tipos de discriminación en diversas esferas de la sociedad.' Existe la necesidad de un apoyo continuo y una relación dinámica del día a día entre las WRO y las mujeres políticas.</t>
+          <t>Las condicionalidades "duras" han tenido efectos positivos en la matriculación escolar de los niños en algunos contextos,51 pero en otros los resultados de las transferencias condicionadas para los niños no suelen ser mejores que las no condicionadas52 o están asociadas a la existencia y calidad de los servicios públicos.55 Además, el tiempo y los esfuerzos de las mujeres para cumplir las condicionalidades no aportan beneficios sociales adicionales.54 La pérdida en el bienestar de las mujeres impuesta por las condicionalidades puede ser mayor que el beneficio en efectivo, como demuestra el caso de Guatemala.55 Esto apoya la eliminación de las condicionalidades. Cuando existen datos desglosados por sexo, las estadÃsticas muestran que la cobertura para las mujeres es inferior. Este es especialmente el caso en los países con sistemas de pensiones contributivos, ya que los bajos e intermitentes patrones de empleo formal de las mujeres hacen que tengan menos capacidad que los hombres para cotizar en nómina.58 En los sistemas de pensiones contributivos, una forma de reconocer el trabajo doméstico y de cuidados no remunerado es a través de créditos.</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>cuarenta y cinco ong centran derechos mujer uganda trabajan forma aislada sino colaboracion ministerio genero trabajo desarrollo social organizacion formo representar voz unida mujeres asi crear plataforma mujeres presentaran colectivamente cuestiones vida politica economica tipos discriminacion diversas esferas sociedad existe necesidad apoyo continuo relacion dinamica dia dia wro mujeres politicas</t>
+          <t>condicionalidades duras efectos positivos matriculacion escolar ninos contextos51 resultados transferencias condicionadas ninos suelen ser mejores condicionadas52 estan asociadas existencia calidad servicios publicos55 ademas tiempo esfuerzos mujeres cumplir condicionalidades aportan beneficios sociales adicionales54 perdida bienestar mujeres impuesta condicionalidades puede ser mayor beneficio efectivo demuestra caso guatemala55 apoya eliminacion condicionalidades existen datos desglosados sexo estadasticas muestran cobertura mujeres inferior especialmente caso paises sistemas pensiones contributivos bajos intermitentes patrones empleo formal mujeres hacen menos capacidad hombres cotizar nomina58 sistemas pensiones contributivos forma reconocer trabajo domestico cuidados remunerado traves creditos</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>2323</v>
+        <v>2348</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Asia Report 138, Kabul/Bruselas, 2007. Por ejemplo, muchos países mantienen leyes discriminatorias con respecto a la propiedad de la tierra, la violencia de género, el matrimonio, la custodia de los hijos, la herencia, el empleo y la orientación sexual. Es esencial apoyar los esfuerzos de cabildeo de las organizaciones de la sociedad civil y los grupos parlamentarios de género/mujeres para reformar las leyes y reglamentos discriminatorios.</t>
+          <t>Hay 45 ONG que se centran en los derechos de la mujer en Uganda. No trabajan de forma aislada, sino en colaboración con el Ministerio de Género, Trabajo y Desarrollo Social. Esta organización se formó para representar una voz unida de mujeres, así como para crear una plataforma en la que las mujeres presentaran colectivamente cuestiones de su vida política y económica y otros tipos de discriminación en diversas esferas de la sociedad.' Existe la necesidad de un apoyo continuo y una relación dinámica del día a día entre las WRO y las mujeres políticas.</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>asia report ciento treinta y ocho kabulbruselas dos mil siete ejemplo paises mantienen leyes discriminatorias respecto propiedad tierra violencia genero matrimonio custodia hijos herencia empleo orientacion sexual esencial apoyar esfuerzos cabildeo organizaciones sociedad civil grupos parlamentarios generomujeres reformar leyes reglamentos discriminatorios</t>
+          <t>cuarenta y cinco ong centran derechos mujer uganda trabajan forma aislada sino colaboracion ministerio genero trabajo desarrollo social organizacion formo representar voz unida mujeres asi crear plataforma mujeres presentaran colectivamente cuestiones vida politica economica tipos discriminacion diversas esferas sociedad existe necesidad apoyo continuo relacion dinamica dia dia wro mujeres politicas</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>2115</v>
+        <v>2323</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Los gobiernos también confirmaron su determinación de promover la igualdad de género y el empoderamiento de la mujer como formas eficaces de combatir la pobreza, el hambre y las enfermedades y promover el desarrollo sostenible (resolución 55/2 de la Asamblea General). La Conferencia de las Partes de la Convención Marco de las Naciones Unidas sobre el Cambio Climático, en su decimoctava sesión, en 2012, adoptó una decisión para promover el objetivo del equilibrio de género en los órganos y delegaciones a las sesiones de la Conferencia de las Partes y para incluir el género y el cambio climático como un tema permanente en la agenda de la Conferencia (ver FCCC/CP/2012/8/ADD.3, decisión 23/CP.18). La resolución también exhortó a los gobiernos a apoyar a las pequeñas agricultoras facilitando su acceso a servicios financieros y de extensión, insumos agrícolas y tierras, agua, saneamiento e irrigación, mercados y tecnologías innovadoras. En la resolución 68/227 sobre la mujer en el desarrollo, adoptada en el mismo período de sesiones, la Asamblea alentó a los gobiernos a tomar medidas para garantizar la igualdad de acceso al empleo pleno y productivo y al trabajo decente. En su 58° período de sesiones, la Comisión instó a los gobiernos a promover la participación plena e igualitaria de mujeres y hombres como agentes y beneficiarios del desarrollo sostenible centrado en las personas (véase E/2014/27).</t>
+          <t>Asia Report 138, Kabul/Bruselas, 2007. Por ejemplo, muchos países mantienen leyes discriminatorias con respecto a la propiedad de la tierra, la violencia de género, el matrimonio, la custodia de los hijos, la herencia, el empleo y la orientación sexual. Es esencial apoyar los esfuerzos de cabildeo de las organizaciones de la sociedad civil y los grupos parlamentarios de género/mujeres para reformar las leyes y reglamentos discriminatorios.</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>gobiernos tambien confirmaron determinacion promover igualdad genero empoderamiento mujer formas eficaces combatir pobreza hambre enfermedades promover desarrollo sostenible resolucion 552 asamblea general conferencia partes convencion marco naciones unidas cambio climatico decimoctava sesion dos mil doce adopto decision promover objetivo equilibrio genero organos delegaciones sesiones conferencia partes incluir genero cambio climatico tema permanente agenda conferencia ver fccccp20128add3 decision 23cp18 resolucion tambien exhorto gobiernos apoyar pequenas agricultoras facilitando acceso servicios financieros extension insumos agricolas tierras agua saneamiento irrigacion mercados tecnologias innovadoras resolucion 68227 mujer desarrollo adoptada mismo periodo sesiones asamblea alento gobiernos tomar medidas garantizar igualdad acceso empleo pleno productivo trabajo decente 58 periodo sesiones comision insto gobiernos promover participacion plena igualitaria mujeres hombres agentes beneficiarios desarrollo sostenible centrado personas vease e201427</t>
+          <t>asia report ciento treinta y ocho kabulbruselas dos mil siete ejemplo paises mantienen leyes discriminatorias respecto propiedad tierra violencia genero matrimonio custodia hijos herencia empleo orientacion sexual esencial apoyar esfuerzos cabildeo organizaciones sociedad civil grupos parlamentarios generomujeres reformar leyes reglamentos discriminatorios</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>1378</v>
+        <v>2115</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Las tarifas de costo total que cobran las instituciones de educación superior privadas para programas similares oscilarían entre USD 9 434,0 y USD 26 415,1, según sus componentes internacional-local. Los analistas de la educación superior han expresado su preocupación con respecto al monto de los subsidios gubernamentales y la medida en que son sostenibles, dado que los costos de la educación superior seguirán aumentando en todo el mundo. R. M. (2010), Acceso y equidad en la educación superior, Malasia.</t>
+          <t>Los gobiernos también confirmaron su determinación de promover la igualdad de género y el empoderamiento de la mujer como formas eficaces de combatir la pobreza, el hambre y las enfermedades y promover el desarrollo sostenible (resolución 55/2 de la Asamblea General). La Conferencia de las Partes de la Convención Marco de las Naciones Unidas sobre el Cambio Climático, en su decimoctava sesión, en 2012, adoptó una decisión para promover el objetivo del equilibrio de género en los órganos y delegaciones a las sesiones de la Conferencia de las Partes y para incluir el género y el cambio climático como un tema permanente en la agenda de la Conferencia (ver FCCC/CP/2012/8/ADD.3, decisión 23/CP.18). La resolución también exhortó a los gobiernos a apoyar a las pequeñas agricultoras facilitando su acceso a servicios financieros y de extensión, insumos agrícolas y tierras, agua, saneamiento e irrigación, mercados y tecnologías innovadoras. En la resolución 68/227 sobre la mujer en el desarrollo, adoptada en el mismo período de sesiones, la Asamblea alentó a los gobiernos a tomar medidas para garantizar la igualdad de acceso al empleo pleno y productivo y al trabajo decente. En su 58° período de sesiones, la Comisión instó a los gobiernos a promover la participación plena e igualitaria de mujeres y hombres como agentes y beneficiarios del desarrollo sostenible centrado en las personas (véase E/2014/27).</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>tarifas costo total cobran instituciones educacion superior privadas programas similares oscilarian usd nueve 4340 usd veintiseis 4151 segun componentes internacionallocal analistas educacion superior expresado preocupacion respecto monto subsidios gubernamentales medida sostenibles dado costos educacion superior seguiran aumentando mundo r m dos mil diez acceso equidad educacion superior malasia</t>
+          <t>gobiernos tambien confirmaron determinacion promover igualdad genero empoderamiento mujer formas eficaces combatir pobreza hambre enfermedades promover desarrollo sostenible resolucion 552 asamblea general conferencia partes convencion marco naciones unidas cambio climatico decimoctava sesion dos mil doce adopto decision promover objetivo equilibrio genero organos delegaciones sesiones conferencia partes incluir genero cambio climatico tema permanente agenda conferencia ver fccccp20128add3 decision 23cp18 resolucion tambien exhorto gobiernos apoyar pequenas agricultoras facilitando acceso servicios financieros extension insumos agricolas tierras agua saneamiento irrigacion mercados tecnologias innovadoras resolucion 68227 mujer desarrollo adoptada mismo periodo sesiones asamblea alento gobiernos tomar medidas garantizar igualdad acceso empleo pleno productivo trabajo decente 58 periodo sesiones comision insto gobiernos promover participacion plena igualitaria mujeres hombres agentes beneficiarios desarrollo sostenible centrado personas vease e201427</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>1833</v>
+        <v>1378</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Los sistemas educativos también pueden considerar la posibilidad de ofrecer incentivos económicos a los centros con exceso de matrícula para que matriculen a alumnos inmigrantes (Field et al., Por ejemplo, la financiación de los centros puede ponderarse en función de las características sociodemográficas de la población estudiantil. La idea es que las buenas escuelas tratarán de matricular a alumnos inmigrantes procedentes de entornos socioeconómicos bajos porque saben que con el dinero adicional proporcionado podrán ofrecer apoyo adicional para que el niño muestre tendencias de mejora y alcance niveles de rendimiento (Hoxby, 2001).</t>
+          <t>Las tarifas de costo total que cobran las instituciones de educación superior privadas para programas similares oscilarían entre USD 9 434,0 y USD 26 415,1, según sus componentes internacional-local. Los analistas de la educación superior han expresado su preocupación con respecto al monto de los subsidios gubernamentales y la medida en que son sostenibles, dado que los costos de la educación superior seguirán aumentando en todo el mundo. R. M. (2010), Acceso y equidad en la educación superior, Malasia.</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>sistemas educativos tambien pueden considerar posibilidad ofrecer incentivos economicos centros exceso matricula matriculen alumnos inmigrantes field et ejemplo financiacion centros puede ponderarse funcion caracteristicas sociodemograficas poblacion estudiantil idea buenas escuelas trataran matricular alumnos inmigrantes procedentes entornos socioeconomicos bajos saben dinero adicional proporcionado podran ofrecer apoyo adicional nino muestre tendencias mejora alcance niveles rendimiento hoxby dos mil uno</t>
+          <t>tarifas costo total cobran instituciones educacion superior privadas programas similares oscilarian usd nueve 4340 usd veintiseis 4151 segun componentes internacionallocal analistas educacion superior expresado preocupacion respecto monto subsidios gubernamentales medida sostenibles dado costos educacion superior seguiran aumentando mundo r m dos mil diez acceso equidad educacion superior malasia</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Los sistemas educativos también pueden considerar la posibilidad de ofrecer incentivos económicos a los centros con exceso de matrícula para que matriculen a alumnos inmigrantes (Field et al., Por ejemplo, la financiación de los centros puede ponderarse en función de las características sociodemográficas de la población estudiantil. La idea es que las buenas escuelas tratarán de matricular a alumnos inmigrantes procedentes de entornos socioeconómicos bajos porque saben que con el dinero adicional proporcionado podrán ofrecer apoyo adicional para que el niño muestre tendencias de mejora y alcance niveles de rendimiento (Hoxby, 2001).</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>sistemas educativos tambien pueden considerar posibilidad ofrecer incentivos economicos centros exceso matricula matriculen alumnos inmigrantes field et ejemplo financiacion centros puede ponderarse funcion caracteristicas sociodemograficas poblacion estudiantil idea buenas escuelas trataran matricular alumnos inmigrantes procedentes entornos socioeconomicos bajos saben dinero adicional proporcionado podran ofrecer apoyo adicional nino muestre tendencias mejora alcance niveles rendimiento hoxby dos mil uno</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
         <v>1330</v>
       </c>
-      <c r="B597" t="inlineStr">
+      <c r="B598" t="inlineStr">
         <is>
           <t>Los programas de almuerzo gratis o los libros de texto gratuitos para familias desfavorecidas son ejemplos de estas políticas. Una combinación de políticas dirigidas al bajo rendimiento y la desventaja socioeconómica puede ser más eficaz en estos casos, ya que las políticas universales pueden ser menos eficaces para mejorar tanto la equidad como el rendimiento simultáneamente. Como se señaló anteriormente, PISA constantemente encuentra que el alto rendimiento y una mayor equidad en las oportunidades y resultados educativos no son mutuamente excluyentes.</t>
         </is>
       </c>
-      <c r="C597" t="inlineStr">
+      <c r="C598" t="inlineStr">
         <is>
           <t>programas almuerzo gratis libros texto gratuitos familias desfavorecidas ejemplos politicas combinacion politicas dirigidas bajo rendimiento desventaja socioeconomica puede ser mas eficaz casos politicas universales pueden ser menos eficaces mejorar equidad rendimiento simultaneamente senalo anteriormente pisa constantemente encuentra alto rendimiento mayor equidad oportunidades resultados educativos mutuamente excluyentes</t>
         </is>
